--- a/news_data/2015_11.xlsx
+++ b/news_data/2015_11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,58 +22,181 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>"T맵에서 제주도 최신 관광정보 만나세요"</t>
+  </si>
+  <si>
+    <t>제주도-하이난 관광산업의 미래...경쟁보다는 상생을</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 관광 취업연결시스템 '굿잡제주' 운영</t>
+  </si>
+  <si>
+    <t>제주도 내국인 관광객 1000만명 돌파</t>
+  </si>
+  <si>
+    <t>제주도 내국인 관광객, 사상 첫 1천만 명 돌파</t>
+  </si>
+  <si>
+    <t>제주도·관광업계, 수학여행단 유치에 팔 걷어붙였다</t>
+  </si>
+  <si>
+    <t>이효리 근황 포착 "제주도 집 관광지 아냐, 심한 스트레스"</t>
+  </si>
+  <si>
+    <t>"제주도, 야간 관광 활성화 대책 마련해야"</t>
+  </si>
+  <si>
+    <t>제주도, 중국어 관광통역안내사 교육</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 日 관광시장 활성화 민관협의회 본격 가동</t>
+  </si>
+  <si>
+    <t>제주도 이전한 네오플, 여가친화기업 중견기업부문 문화체육관광부 장관상 수...</t>
+  </si>
+  <si>
+    <t>제주도, 중문관광단지 매입협상 잠정 중단</t>
+  </si>
+  <si>
+    <t>제주도관광협회 "제2공항 신설 단축, 정부 지원·협력 요청"</t>
+  </si>
+  <si>
+    <t>제주도교육청.제주관광협회, 관광인재양성 MOU</t>
+  </si>
+  <si>
+    <t>제주도 "기반시설 없는 자연녹지에 관광숙박시설 불허"</t>
+  </si>
+  <si>
+    <t>[제주] 초겨울 날씨에도 제주도 관광지는 '북적'</t>
+  </si>
+  <si>
+    <t>제주도-관광공사, 6개국 관광설명회·홍보 팸투어</t>
+  </si>
+  <si>
+    <t>제주신공항 서귀포 신산, 2025년 개항 목표..."제주도 관광 활성화"</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 일본 현지 관광로드홍보 추진</t>
+  </si>
+  <si>
+    <t>제주도 전설지 스토리텔링, 문화관광 이야기콘텐츠로 개발</t>
+  </si>
+  <si>
+    <t>제주도, 인도네시아와 관광교류 협력 업무협약 체결</t>
+  </si>
+  <si>
+    <t>외국인 연 300만명 찾는 관광지 제주도의 민낯</t>
+  </si>
+  <si>
+    <t>[동해]제주도 투어 관광열차 “출발”</t>
+  </si>
+  <si>
+    <t>제주도 중국 잠재 관광객 유치 나선다</t>
+  </si>
+  <si>
+    <t>제주도·JTO 일본인관광객 수요회복 위해 팔을 걷어붙인다!</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 올레길 환경정화 봉사활동 전개</t>
+  </si>
+  <si>
+    <t>제주도-하이난성, 관광·인문교류 협력 강화</t>
+  </si>
+  <si>
+    <t>제주도 부동산투자이민제 적용 지역 관광지 제한키로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주이주희망자 '제주살이' 팸투어</t>
+  </si>
+  <si>
+    <t>2018년, 제주도내 관광호텔 약 4,330실 이상 과잉공급 예상</t>
+  </si>
+  <si>
     <t>제주도-인도네시아, 관광 활성화 위한 MOU 체결</t>
   </si>
   <si>
-    <t>제주도관광협회, 올레길 환경정화 봉사활동 전개</t>
-  </si>
-  <si>
-    <t>제주도-하이난성, 관광·인문교류 협력 강화</t>
-  </si>
-  <si>
-    <t>제주도 부동산투자이민제 적용 지역 관광지 제한키로</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 제주이주희망자 '제주살이' 팸투어</t>
-  </si>
-  <si>
     <t>제민일보사·제주도관광협회 2015 제주관광대상 시상</t>
   </si>
   <si>
-    <t>2018년, 제주도내 관광호텔 약 4,330실 이상 과잉공급 예상</t>
-  </si>
-  <si>
     <t>맛과 영양 가득 제주도 중문관광단지 맛집 '오빠닭'</t>
   </si>
   <si>
-    <t>[제주] 초겨울 날씨에도 제주도 관광지는 '북적'</t>
-  </si>
-  <si>
     <t>제주도 환상 자전거길 개통...234km의 아름다운 자전거 관광 만끽</t>
   </si>
   <si>
-    <t>제주도-인도네시아, 관광 활성화 위한 MOU 체결 &lt; 사회일반 &lt; 사회 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 09:43 (화) 본문영역 이전 기사보기 다음 기사보기 제주도-인도네시아, 관광 활성화 위한 MOU 체결 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회일반 제주도-인도네시아, 관광 활성화 위한 MOU 체결 기자명 조보영 기자 입력 2015.11.10 18:14 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 실질적 교류와 협력증진으로 공동 이익 창출 기여 전망 ▲지난 9일 인도네시아 관광부 14층 회의실에서 인도네시아의 마하마다 그룹과 한국의 이지웰페어가 관광활성화를 위한 업무협력을 체결했다.[제주도민일보=조보영 기자] 제주도와 제주도관광협회는 인도네시아의 마하다나 그룹과 한국의 이지웰페어가 관광활성화 증진을 위한 업무협력을 체결다고 10일 밝혔다.지난 9일 인도네시아 관광부 회의실에서 진행된 이번 협약은 제주도와 인도네시아간 관광객 유치와 상호 교류협력 분야 발굴 및 공동 이익 창출을 위한 물밑 행보의 일환이다.2003년 설립한 이지웰페어는 선택적 복지시스템이라는 새로운 정보시스템 분야를 개척한 바 있으며, 마하다나 그룹은 인도네시아 자카르타에 기반을 둔 투자그룹으로 금융 솔류션, 운송, 임대사업과 관련된 자회사를 두고 있다.제주관광공사 최갑열 사장은 “인도네시아 관광객 유치를 위해서는 할랄문화 인증 및 편의증진을 위한 수용태세 개선이 반드시 필요하다”며 “금번 업무협력을 통해 실질적 교류와 협력증진이 있을 것으로 기대된다”고 밝혔다.한편, 인도네시아 인구는 약 2억5천만 명이며 중산층 인구가 약 7천만명 규모로, 말레이시아와 같은 언어를 사용하는 등 유사한 문화를 갖고 있다.향후 제주도는 인도네시아와 말레이시아가 새로운 관광시장으로 부상할 것으로 내다보고 있다. 조보영 기자 maana97@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 제주 첫 전국장애인기능경기대회 폐막 오늘의 주요뉴스 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자 인사청문 ‘배신·기회주의자’ 난타 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 올레길 환경정화 봉사활동 전개 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 올레길 환경정화 봉사활동 전개 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도관광협회, 올레길 환경정화 봉사활동 전개 편집팀 headlinejeju@headlinejeju.co.kr 승인 2015.11.15 09:57 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 김영진)는 14일 한림항 비양도 선착장과 고내포구를 잇는 올레 15코스 일대에서 환경정화 봉사활동을 전개했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도 부동산투자이민제 적용 지역 관광지 제한키로 - 한강타임즈 × 전체기사 정치 전체 청와대 국회 정당 행정/지자체 외교/국방 북한 정치일반 선거 경제 전체 주식 부동산 생활경제 금융 기업/산업 취업/직장인 국제경제 자동차 경제일반 증권 IT/모바일 전체 과학 인터넷 휴대폰/통신 게임 IT일반 사회 전체 사건/사고 노동 환경 복지 여성 교육 미디어 인물 사회일반 지역일반 국제 전체 일본 중국 아시아 미국 아메리카 유럽 중동 아프리카 영어뉴스 해외화제 국제일반 문화 전체 생활정보 연극/뮤지컬 영화 공연/전시 콘서트 여행/레져 종교 문화일반 연예 전체 연예가화제 TV/드라마 가요/음악 해외연예 연예일반 실시간 핫이슈 스포츠 전체 축구 해외축구 야구 해외야구 농구 배구 복싱 골프/레져 격투기 일반스포츠 지방 전체 지방의회 경기도 광주광역시 대구광역시 대전광역시 인천광역시 부산광역시 울산광역시 강원도 경상남도 경상북도 전라남도 전라북도 충청남도 충청북도 제주특별자치도 지방일반 서울자치구 전체 서울시 강남구 강동구 강북구 강서구 관악구 광진구 구로구 금천구 노원구 도봉구 동대문구 동작구 마포구 서대문구 서초구 성동구 성북구 송파구 양천구 용산구 영등포구 은평구 종로구 중구 중랑구 라이프 전체 생활정보 뷰티/패션 건강 도서/출판 음식/맛집 이벤트 성인정보 동영상 여론조사 전체 이슈 정치 경제 사회 문화/연예 스포츠/레져 교육/취업 여론시사 포토 전체 정치 사회 경제 국제 문화/생활 연예 IT/과학 알림 전체 본사알림 인사 동정 행사 부음 오피니언 전체 데스크칼럼 사설 시론 한줄뉴스 말말말 인터뷰 전체 정치 경제 사회 문화 연예 인물 시민기자 전체 정치 경제 사회 문화/연예 IT/과학 한국어 영어 일본어 중국어 프랑스어 스페인어 러시아어 인도어 베트남어 카카오스토리 트위터 페이스북 전체기사 모바일웹 rss LOG IN JOIN 전체 정치 청와대 국회 정당 행정/지자체 외교/국방 북한 정치일반 선거 경제 주식 부동산 생활경제 금융 기업/산업 취업/직장인 국제경제 자동차 경제일반 증권 사회 사건/사고 노동 환경 복지 여성 교육 미디어 인물 사회일반 지역일반 국제 일본 중국 아시아 미국 아메리카 유럽 중동 아프리카 영어뉴스 해외화제 국제일반 문화 생활정보 연극/뮤지컬 영화 공연/전시 콘서트 여행/레져 종교 문화일반 연예 연예가화제 TV/드라마 가요/음악 해외연예 연예일반 실시간 핫이슈 스포츠 축구 해외축구 야구 해외야구 농구 배구 복싱 골프/레져 격투기 일반스포츠 기사검색 검색 실시간뉴스 동대문구, ‘14년 정체’ 신설1구역 공공재개발 사업 박차 민주당, '서해 공무원 피살' 文 겨냥한 감사원 배후로 대통령실 지목 하나銀, 유튜브 통해 퇴직연금 ‘디폴트옵션 라이브 세미나’ 진행 尹정부 첫 국감, 여야 '강 대 강' 대치...전·현직 대통령 소환된 정쟁 테이블 기상청 "오전까지 전국 비... 오후부터 기온 ‘뚝’" [KBO] ‘꼴찌의 반란’ 한화, 선두 SSG 정규시즌 우승 확정 저지 北, 자강도서 탄도미사일 발사... 일본 상공 통과 코스피·코스닥, 오름세로 장 출발 [한강T-포토] 정찬성 제자 박재현 엔젤스파이팅 20 라이트급 초대챔피언 등극 [오늘의 운세 2022년 10월 4일] 89년생 게으른 자만 경쟁에서 뒤쳐진다 기사쓰기 기사쓰기안내 작성기사보기 내정보수정 이전 다음 제주도 부동산투자이민제 적용 지역 관광지 제한키로 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 시민기자 경제 제주도 부동산투자이민제 적용 지역 관광지 제한키로 장경철 기자 승인 2015.11.05 16:58 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 분양형 콘도에 치중됐던 무분별한 개발사업에 제동 제주에서는 부동산투자이민제 적용 지역이 관광지로 제한된다. 제주도는 법무부 고시가 개정됨에 따라 이달부터 부동산투자이민제 적용 지역을 변경한다고 5일 밝혔다. 부동산투자이민제는 콘도 등 휴양체류시설에 5억원 이상을 투자한 외국인에게 거주(F-2) 비자를 발급해주고 5년이 지나면 영주권(F-5)을 부여하는 제도다. 기존 제주에서는 관광단지와 관광지, 유원지, 지구단위, 농어촌관광단지 등에 부동산투자이민제가 적용됐다. 중국 자본이 제주로 유입되면서 외국인 투자 유치에 기여했지만 분양형 콘도 위주의 개발사업과 숙박시설 난립, 중산간 지역 등에 대한 난개발로 논란이 돼 왔다. 제주도는 관광단지와 관광지에 한해 부동산투자이민제를 적용하게 됨에 따라 분양형 콘도에 치중됐던 무분별한 개발사업에 제동이 걸릴 것으로 보고 있다. 한강타임즈는 언제나 여러분의 제보를 기다립니다. ▶ 전화 02-777-0003 ▶ 이메일 news@hg-times.com ▶ 카카오톡 @한강타임즈 &lt;저작권자 © 내 손안의 뉴스 '한강타임즈' 무단 전재 및 재배포 금지&gt; 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 정기후원인이 되어주세요. 매체명 : 한강타임즈 연락처 : 02-777-0003 은행계좌 : 우리은행 1005-702-873401 예금주명 : 주식회사 한강미디어 이 기사에 대해 어떻게 생각하시나요? 장경철 기자 2002cta@naver.com 기사더보기 &gt; 경기도 미분양 많이 줄어든 지역, 분양단지 노려볼까 봄 분양성수기, 사통팔달 교통 요충지, 분양 단지 잡아볼까 친환경 바람, 공원 인접 아파트 몸값 고공행진 페이스북 트위터 카카오스토리 네이버밴드 구글 주요뉴스 北, 자강도서 탄도미사일 발사... 일본 상공 통과 코스피·코스닥, 오름세로 장 출발 기상청 "오전까지 전국 비... 오후부터 기온 ‘뚝’" [KBO] ‘꼴찌의 반란’ 한화, 선두 SSG 정규시즌 우승 확정 저지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 한강포토(만평) 한강인터뷰 김길성 중구청장 용산구의회 오천진 의장 김형대 강남구의회 의장 김영미 마포구의회 의장 더불어민주당 유동균 마포구청장 후보 44년 만에 구민 숙원 '삼표레미콘' 공장 철거 가능성 '제로' GTX-C 왕십리역 신설 확정 성과 중학교 신설ㆍ장터길 확장 등 공약 모두 해결 양준욱 강동구청장 예비후보 정원오 성동구청장 지난 한해 ‘삶터’, ‘일터’, ‘쉼터’ 조화롭게 도약 내년 GTX-C 왕십리역 확정ㆍ장터길 확장 마무리 친환경차 자체 지원ㆍ탄소중립도시로 지속 성장 더불어민주당 고민정 의원(서울 광진구을) 한강타임즈(공식) 인기기사 섹션인기 최근기사 1제4354주년 개천절 경축식... 비 예보에 ‘실내’로 변경 2인니 축구장 수천명 난동 ‘대참사’... ‘최소 127명 사망’ 3[KBO] ‘꼴찌의 반란’ 한화, 선두 SSG 정규시즌 우승 확정 저지 4北, 자강도서 탄도미사일 발사... 일본 상공 통과 5尹정부 첫 국감, 여야 '강 대 강' 대치...전·현직 대통령 소환된 정쟁 테이블 6코스피·코스닥, 오름세로 장 출발 7기상청 "오전까지 전국 비... 오후부터 기온 ‘뚝’" 8하나銀, 유튜브 통해 퇴직연금 ‘디폴트옵션 라이브 세미나’ 진행 9[한강T-포토] 정찬성 제자 박재현 엔젤스파이팅 20 라이트급 초대챔피언 등극 10민주당, '서해 공무원 피살' 文 겨냥한 감사원 배후로 대통령실 지목 정치 이재명 경기도지사 적합도 ‘타의 추종 불허’} 경제 삼성전자, 전남대와 ‘스마트캠퍼스 구현’ 맞손} IT/모바일 SKT, 증강현실 영상통화 ‘콜라’ 출시} 사회 '제주 4.3 사건', 증언담 보니..."온몸이 뜯어져 사람 꼴이 안돼, 그냥 죽이는 거였다"?} 문화 ‘Hi, POP - 거리로 나온 미술, 팝아트展’ ‘하이팝-아트페어’ 개최} 연예 '레드벨벳' 조이, 데뷔전 과거 사진 눈길...'통통한 볼살'} 스포츠 토트넘 손흥민, 여심 사로잡은 미소…‘시선 강탈’} 지방 제1회 빛고을 패밀리랜드 벚꽃 축제, 6일 개최} 서울자치구 성동구, 마을 탐험 4개 테마 코스 개발... ‘공정여행’ 눈길} 라이프 [오늘의 운세] 2018년 4월 4일 수요일} 1동대문구, ‘14년 정체’ 신설1구역 공공재개발 사업 박차 2민주당, '서해 공무원 피살' 文 겨냥한 감사원 배후로 대통령실 지목 3하나銀, 유튜브 통해 퇴직연금 ‘디폴트옵션 라이브 세미나’ 진행 4尹정부 첫 국감, 여야 '강 대 강' 대치...전·현직 대통령 소환된 정쟁 테이블 5기상청 "오전까지 전국 비... 오후부터 기온 ‘뚝’" 6[KBO] ‘꼴찌의 반란’ 한화, 선두 SSG 정규시즌 우승 확정 저지 7北, 자강도서 탄도미사일 발사... 일본 상공 통과 8코스피·코스닥, 오름세로 장 출발 9[한강T-포토] 정찬성 제자 박재현 엔젤스파이팅 20 라이트급 초대챔피언 등극 10제4354주년 개천절 경축식... 비 예보에 ‘실내’로 변경 +?php include INCLUDE_PWD."news/autobox/autobox_new_40.htm"; ?+/&gt; 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 제호 : 한강타임즈 대표이사·발행·편집인 : 안병욱 기사·사진 저작권 관리자 : 김재태 편집·개인정보관리 책임자 : 황인순 청소년보호책임자 : 김광호 서울특별시 성동구 고산자로 202 (행당동.무학빌딩) 5층 (주)한강미디어(한강타임즈) 대표전화 : 02-777-0003 편집국 : 02-2299-7770 팩스 : 02-2299-2753 명칭 : (주)한강미디어 인터넷일간신문(한강타임즈) 등록번호 : 서울 아 00321 발행일·등록일 : 2007-02-09 통신판매업신고번호 : 서울성동-0244호 한강타임즈 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 한강타임즈. All rights reserved. &amp;nbsp&amp;lt자매지&amp;gt : 성동저널 기사제보·보도자료 : (한강타임즈 통합이메일) news@hg-times.com 위로</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 제주이주희망자 '제주살이' 팸투어 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' [특징주] 캐스텍코리아 주가 상한가 '포르쉐 상장 시총 4위' [특징주] 오성첨단소재 주가 상한가 '상장적격성 실질심사 제외' 2022-10-04 10:00 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 제주이주희망자 '제주살이' 팸투어 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협회, 제주이주희망자 '제주살이' 팸투어 기자명 고병수 기자 입력 2015.11.04 15:10 수정 2015.11.04 15:18 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수기자 = 제주도관광협회(회장 김영진)와 제주도는 4일부터 6일까지 제주이주 희망자를 대상으로 제주이주 희망자 '제주살이' 체험 팸투어를 진행한다고 밝혔다.올해 2번째 진행되는 팸투어는 제주이주를 희망하는 도외지역민 30인을 초청해 제주의 문화와 생활방식, 부동산 정보, 제주도의 지원정책 및 창업정보 등 강의를 제공할 예정이다.팸투어에 참가한 이주민들은 40대부터 60대까지 연령으로 구성됐으며 참가자들 중 90%가 서울·경기에 집중돼 은퇴이후 제2의 삶과 여유로운 삶을 추구하고자 제주이주를 희망하고 있는 것으로 분석된다. 관계자는 "앞으로도 제주가 관광지를 넘어 '살고 싶은 제2의 고향'으로 그 가치를 더해 갈 수 있도록 제주로 이주를 고려하시는 분들에게 도움을 주고자 발판을 마련해 나갈 예정"이라고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 최신뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 포토뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제민일보사·제주도관광협회 2015 제주관광대상 시상 &lt; 경제종합 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제민일보사·제주도관광협회 2015 제주관광대상 시상 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 경제종합 제민일보사·제주도관광협회 2015 제주관광대상 시상 기자명 한 권 기자 입력 2015.11.04 19:19 수정 2015.11.04 21:01 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 4일 제주상의 국제회의장서 열려…해비치호텔앤드리조트㈜ 대상 ▲ 제민일보사와 제주도관광협회가 공동주최로 제주관광 발전에 선도적인 역할을 하게 될 업체와 인재를 발굴해 시상하는 '2015제주관광대상' 시상식이 4일 오후 제주상공회의소 5층 국제회의장에서 열린 가운데 15명의 수상자와 내외 귀빈들이 기념촬영을 하고 있다. 김대생 기자제주관광의 괄목할 성장을 견인하는 관광업체와 인재를 발굴해 시상하는 '2015 제주관광대상' 시상식이 4일 제주상공회의소 국제회의장에서 열렸다.제민일보사(대표이사 백승훈)와 제주도관광협회(회장 김영진)가 공동주최한 '2015 제주관광대상'은 3년 연속 국내·외 관광객 1000만명 돌파라는 신기원과 내국인 관광객 1000만명 달성에 대한 기대감, 관광산업의 역할 확대 등 관광 성장세를 상징하는 자리로 주목받았다.올해 종합부문 대상에는 해비치호텔앤드리조트㈜(대표이사 이 민)가 선정돼 문화체육관광부장관 표창을 받았다.관광지업 부문 대상에는 김영갑갤러리두모악(관장 박훈일), 숙박업 부문 대상에는 ㈜다인리조트(대표이사 권혁성)가 각각 선정, 제주도지사 표창을 수상했다.마이스산업 부문 ㈜이다(대표이사 김명수)와 운수업 부문 ㈜동양썬라이즈관광(대표이사 고수은), 여행업 부문 (유)늘푸른항공여행사(대표이사 고금환)·㈜제주아름(대표이사 오정민)도 대상 업체로 제주도지사 표창을 받았다.관광자원화기여상은 이음새(대표이사 박지혜·제민일보 대표이사 표창)와 낙천리아홉굿마을(이장 오원국·한국관광협회중앙회장 표창)이 각각 수상했다.개인 부문에서는 양미영씨(48·여)와 이기홍씨(52)가 각각 여행안내사상(제주도지사 표창), 현수진(34·여)·문정원(49·여)씨가 공로상(제주도지사 표창)을 받았다. 이밖에 김선리(51·여)·박영석(51)씨가 특별상(제주도관광협회장 표창)을 받았다.이 민 해비치호텔앤드리조트㈜ 대표이사를 대신해 종합대상을 수상한 권순범 부총지배인은 "임·직원 모두 지금보다 더욱 노력해 제주관광 발전에 이바지하는 해비치가 되겠다"며 "지역과 동반성장할 수 있도록 지속적인 사회공헌활동도 이어나가겠다"고 밝혔다.한편 이날 시상식에는 권영수 제주도 행정부지사를 비롯해 장 씬 주제주중국총영사관 총영사, 부광진 서귀포시 부시장, 최갑열 제주관광공사 사장, 홍명표 한국관광협회중앙회 상임고문, 정상돈 한국은행제주본부장, 강덕재 농협중앙회 제주지역본부장, 강두철 제주은행 부행장 등이 참석했다.한 권 기자 한 권 기자 hk0828@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>맛과 영양 가득 제주도 중문관광단지 맛집 ‘오빠닭’ - 시선뉴스 × 전체기사 시사 전체 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 타임즈(개편중) 지식‧교양 전체 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 TV스캔들(개편중) 지식·정보 전체 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 전체 사회·문화 엔터테인먼트 날씨 다큐멘터리 전체 시선 인터뷰 역사 기억 [memory, 記憶] 스토리오브코리아 뉴스 전체 이슈돋보기 대중문화 HOT키워드 상상마당 라이프 전체 건강·음식 인테리어 패션·뷰티 육아 자동차 여행·관광 360VR e-biz 애니멀 전체 신비한 동물사전 반려동물농장 애니멀TV 산업 전체 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 2022년 10월 첫째 주 육아 관련 정책 [육아 정책브리핑] 당치땡, 신메뉴 ‘텍사스 치베큐’ 출시’ 중소기업유통센터, 소상공인 지원하는 ‘벤자민권 시즌2’ 마무리 씽잉 콘텐츠 플랫폼 ‘썸씽’ 출신 모창능력자, 히든싱어7 최종라운드 진출 셀코스메트 셀맨, ‘울트라 바이탈 크림’ 등 신제품 10종 출시 가해자와 함께 있어 경찰에 도움 요청하기 어려울 때 ‘똑똑’ 보이는 112 [지식용어] [정책브리핑] 2022년 10월 04일 화요일 주요 정책 10월 04일 화요일, 오늘의 날씨와 미세먼지 농도 [인포그래픽] [오늘의 사자성어] 동행서주[東行西走] 한국열린사이버대학교 평생교육원 ‘10월 20일 개강’ 사회복지사 2급 교육 수강생 모집 [10년 전 오늘] 17회 부산국제영화제(BIFF) 개막...안성기-탕웨이 사회로 개막식 진행 2022년 10월 04일, 오늘의 띠별 운세 [인포그래픽] [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 車 주요뉴스, 기아·포드 등 10만대 리콜 – 휘발유·경유 기름값 내림세 [모터그램] 네이버TV 카카오TV 유튜브 네이버 포스트 facebook twitter kakao story 로그인 회원가입 모바일웹 시사 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 지식‧교양 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 지식·정보 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 사회·문화 엔터테인먼트 날씨 애니멀 신비한 동물사전 반려동물농장 애니멀TV 다큐멘터리 시선 인터뷰 키워드 한국사 기억 [memory, 記憶] 스토리오브코리아 뉴스 이슈돋보기 대중문화 산업 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 기사검색 검색 이전 다음 맛과 영양 가득 제주도 중문관광단지 맛집 ‘오빠닭’ 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 이슈돋보기 맛과 영양 가득 제주도 중문관광단지 맛집 ‘오빠닭’ 보도본부 | 이호 기자 승인 2015.11.27 14:17 댓글 0 글씨키우기 글씨줄이기 메일보내기 인쇄하기 페이스북 트위터 구글 카카오스토리 블로그 기사공유하기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [시선뉴스] 과거부터 현재까지 국내 관광지 중 가장 사랑 받는 곳은 바로 제주도일 것이다. 온난한 기후 때문에 겨울철에도 인기가 많은 제주도는 다양한 절경과 관광 상품 등으로 매년 관광객들이 끊이질 않는데 여러 제주도 관광지 중 가장 핫플레이스 꼽히는 곳은 바로 중문관광단지이다.중문관광단지에는 중문 해수욕장과 주상절리, 올레길, 퍼시픽랜드, 천제연폭포, 신라호텔, 롯데호텔, 위호텔, 부영호텔 등 다양한 관광지와 숙박시설이 있어 재미와 편의성을 모두 갖추고 있다는 평을 받고 있다. 또한 여행에 있어서 관광객들이 중요하게 생각하는 것 중 하나가 바로 먹거리인데 중문에는 다양한 중문맛집들이 즐비해 관광객들을 즐겁게 하고 있으며 그 중 중문관광단지 ‘오븐에 빠진 닭’ 역시 큰 사랑을 받고 있다.오빠닭은 전국적으로 많아 상당히 대중적인 곳으로 알려져 있지만 중문에 위치한 제주지사 직영점 오빠닭은 다른 매장과 다른 차별성을 내세우며 특별한 맛집으로 자리매김 하고 있다.일단 중문맛집 오빠닭의 장점은 바로 인테리어다. 오빠닭은 치킨집이지만 세련된 인테리어를 통해 고객들의 눈을 즐겁게 하고 있으며 폴딩도어 밖으로 보이는 경치는 식사시간을 더욱 만족스럽게 만들어주고 있다는 후기가 많다.인테리어뿐만 아니라 중문관광단지 맛집 오빠닭에서 제공하는 메뉴도 다양해 호평을 받고 있다. 크리스피 베이크와 오리지널 로스트, 퐁닭퐁닭, 요거닭, 파파닭, 스노우치즈불닭 등 치킨 메뉴의 선택에도 폭이 넓으며 떠먹는 피자치즈, 허니 갈릭, 골뱅이무침, 화로닭발, 먹태구이 등 치킨 메뉴 이외의 것도 비중 있는 메뉴로 자리잡고 있다.중문맛집 오빠닭의 한 관계자는 “관광객들이 더욱 즐거운 여행을 할 수 있도록 모든 메뉴에 정성을 기울이고 있다. 맛은 물론 영양까지 신경 쓴 음식들을 저렴하게 제공하고 있으며 제주도에서 좋은 기억을 가지고 갈 수 있도록 노력하고 있다.”고 밝혔다.또한 “오빠닭의 장점은 기름에 튀기지 않고 오븐에 구워서 치킨을 제공한다는 점이 있는데 최근 트랜스지방에 대한 경각심이 높은 만큼 이에 대한 고객들의 호응이 좋다. 영양가도 높이는 동시에 지방과 콜레스테롤을 최소화시키기 때문에 남녀노소 모두 즐길 수 있다.”고 설명했다.한편 중문관광단지 맛집 오빠닭은 현재 1만원 할인 이벤트도 진행 중이다. 오후 5시에서 7시 사이에 퐁닭퐁닭, 요거닭, 파파닭, 베리굿닭을 주문할 경우 5,000원을 할인 받을 수 있고, 또한 밤 11시부터 새벽 2시 사이에 페스츄리포테이토, 피쉬앤칩스, 모듬소세지, 먹태구이를 주문하면 5,000원 할인이 가능하다. 그리고 ‘에딩 앱’ 설치 후 5,000원 할인 쿠폰도 다운로드 받을 수 있다.오빠닭(www.oppadak.co.kr) 제주 본점 중문점은 제주특별자치도 서귀포시 중문동 1882에 위치하고 있으며 오후 4시부터 다음날 오전 2시까지가 영업시간이다. 저작권자 © 시선뉴스 무단전재 및 재배포 금지 보도자료 발송 및 기사제휴 ▶ sisunnews@sisunnews.co.kr 문의 ▶ 02-838-5150 연예·스포츠 인기뉴스 씽잉 콘텐츠 플랫폼 ‘썸씽’ 출신 모창능력자, 히든싱어7 최종라운드 진출 씽잉 콘텐츠 플랫폼 ‘썸씽’ 출신 모창능력자, 히든싱어7 최종라운드 진출 이틀 만에 입장 발표한 박민영 측, 열애설 관련 “현재는 이별한 상태” 이틀 만에 입장 발표한 박민영 측, 열애설 관련 “현재는 이별한 상태” 제이플랜, 10월 5일 디지털 싱글 (Nostalgia) 발매 확정 제이플랜, 10월 5일 디지털 싱글 (Nostalgia) 발매 확정 엑소(EXO) 찬열, 군 복무 마치고 팬들 곁으로... 그룹 내 다섯 번째 군필 멤버 엑소(EXO) 찬열, 군 복무 마치고 팬들 곁으로... 그룹 내 다섯 번째 군필 멤버 [카드뉴스] 헷갈리는 재활용...알고 보니 재활용되지 않는 품목들 [카드뉴스] 헷갈리는 재활용...알고 보니 재활용되지 않는 품목들 시사상식 노트7 [2022년 10월 첫째 주_시선뉴스] [카드뉴스] 반려조류는 어떻게 키워야 할까 #십자매 #카나리아 #문조 北 위협에도 DMZ 찾은 해리스 미 부통령, 굳건한 안보 확인 "평화로운 한반도 추구" [글로벌이야기] 여성 신도 성폭행-추행 혐의 정명석 총재 구속영장 신청 外 [오늘의 주요뉴스] 오늘의 주요뉴스 기사더보기 &gt; 이호 기자 dlghcap@sisunnews.co.kr “2019 소비자만족 브랜드대상 1위” 수학문제은행 ‘매쓰플랫’, 1... 인천 마음뜰심리상담센터 이은하 슈퍼바이저, “진실함과 전문성을 바탕으... 송파 글래드힐(Glad Heal), 정미경 대표  “몸과 마음의 균형... 오늘 이 영화 어때요? 1 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 2 [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ 1 [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ 2 [무비레시피] 칸에서 기립박수 받은 ‘감독’ 이정재의 첫 데뷔작, 영화 ’헌트’ [무비레시피] 칸에서 기립박수 받은 ‘감독’ 이정재의 첫 데뷔작, 영화 ’헌트’ 관련기사 죽음을 부른 잘못된 운전습관 ‘기어 D로 놓고 내리기’ [시선톡] [오늘의 사자성어] 적수공권[赤手空拳] [퇴근뉴스]러시아-터키 경고없었다, 송유근 박사 무산, 인분교수 징역, 에이미 패소[시선뉴스] 많이 본 뉴스 종합 뉴스 1[오늘의 사자성어] 성의정심[誠意正心] 2[10년 전 오늘] 우리나라가 세워진 단기 4345년 개천절, 전국 곳곳서 경축행사 거행 3[정책브리핑] 2022년 10월 03일 월요일 주요 정책 4이번 주 별자리운세 '10월 03일~10월 09일' [인포그래픽] 5병역기피 논란 유승준, 명확한 ‘외국인과 재외국민’ 국적 요청 재판부 [지식용어] 62022년 10월 03일, 오늘의 띠별 운세 [인포그래픽] 7[무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 8車 주요뉴스, 기아·포드 등 10만대 리콜 – 휘발유·경유 기름값 내림세 [모터그램] 9[시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 10에듀윌, 경찰공무원 ‘김민현 경찰학 행정법 특강’ 무료 배포...“행정법 집중 학습” 1씽잉 콘텐츠 플랫폼 ‘썸씽’ 출신 모창능력자, 히든싱어7 최종라운드 진출 2이틀 만에 입장 발표한 박민영 측, 열애설 관련 “현재는 이별한 상태” 3제이플랜, 10월 5일 디지털 싱글 (Nostalgia) 발매 확정 4엑소(EXO) 찬열, 군 복무 마치고 팬들 곁으로... 그룹 내 다섯 번째 군필 멤버 5브로드웨이의 전설, 스티븐 손드하임이 남긴 위대한 걸작 ‘스위니토드’가 돌아온다! 6돈스파이크 필로폰 투약 혐의로 경찰에 체포... 1000회분 소지 7종합 격투 예능 ‘다이다이’, 100만 조회수를 돌파..."간결하고 빠른 진행 특징" 8산다라박 공항패션, 크리스찬 루부탱 스니커즈-가방으로 포인트 9MBN '뷰티풀! 맘마미아', 뇌동맥류 극복한 엄마 김혜자편 방영 10한화, 대우조선 품는다... 조건부 투자계약 체결-2조원 유상증자 방식 스타 인터뷰 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' [시선★피플] 화제작 ‘수리남’ 극 흐름 이끄는 ‘하정우’, 2023년 에미상 기대해볼까 [시선★피플] 화제작 ‘수리남’ 극 흐름 이끄는 ‘하정우’, 2023년 에미상 기대해볼까 [인터뷰360] 워커홀릭이 체질? 몸이 10개라도 모자랄 만능엔터테이너 회사 대표 '유빈' [인터뷰360] 워커홀릭이 체질? 몸이 10개라도 모자랄 만능엔터테이너 회사 대표 '유빈' 신문방송사소개 인사말 연혁 등록인증 윤리강령 저작권규약 광고·제휴 제공제휴사 개인정보취급방침 이메일무단수집거부 찾아오시는길 청소년보호정책 서울특별시 구로구 디지털로31길 20 (구로동) 에이스테크노타워 5차 1008호 편집인 : 박진아 발행인 : 김정우 청소년보호책임자 : 박진아 등록일 : 2012.08.01 인터넷신문 등록번호 : 서울 아03964 이메일 : sisunnews@sisunnews.co.kr 사업자번호 : 130-86-88882 대표전화 : 02-838-5150 팩스 : 02-851-2908 Copyright © 2022 시선뉴스. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 위로</t>
-  </si>
-  <si>
-    <t>[제주] 초겨울 날씨에도 제주도 관광지는 ‘북적’ menu 초겨울 날씨에도 제주도 관광지는 ‘북적’ search add_circle close 정치 국회·정당 정치일반 대통령실·총리실 북한 외교·통일 국방 기자수첩 English News 경제 경제일반 기업·산업 IT·전자·과학 건설·부동산 금융·증시 자동차 유통 방송·통신 정책 기자수첩 English News 국제 국제일반 국제HOT뉴스 기자수첩 한줄로 보는 오늘 지구촌 Global Opinion 국제인사이드 English News 사회 사회일반 사건·사고 법원·검찰·경찰 교육·캠퍼스 노동·인권·여성 행정자치 식품·농수산 보건·복지·의료 환경·날씨 피플 교통 보훈 언론·미디어 기자수첩 English News 문화 전체 문화일반 단독 전통문화 문화재 만화 박물관 기자수첩 OTT·방송 공연·전시 문화인 영화 책마당 English News 종교 전체 개신교 천주교 불교 민족종교 세계종교 종단연합 기자수첩 종교인 종교문화 종교오피니언 English News 연예 가요 연예가 화제 연예일반 스타⭐ 천지라인⭐ 방송·TV 핫이슈 기자수첩 English News 스포츠 스포츠일반 축구 야구 골프 e-스포츠 배구 농구 바둑 기자수첩 English News 전국 서울 인천/경기 대전/세종 충청 광주/전남/전북 대구/경북 부산/울산/경남 강원 제주 기자수첩 English News 글마루 역사 종교 문화 기타 마루대문 천지매거진 기자수첩 English News 라이프 PR광장 패션·뷰티 교육·출판 육아 리빙 식품 웨딩 게임 여가·여행 공연·축제·박람회 컴퓨터·휴대폰·IT 창업·프랜차이즈 캠페인 부동산 English News 웰빙건강 의학정보 힐링정보 English News 비주얼뉴스 카드뉴스 English News 포토ZONE 전체 정치 경제 국제 사회 문화 종교 연예 스포츠 전국 글마루 라이프 웰빙건강 비주얼뉴스 특집 유통 대학 공기업 금융 기업 통신 자동차 English News 오피니언 천지시론 칼럼 사설 투고 ·기고 기자수첩 만평 시사카툰 가로세로 퀴즈 English News 기획 특별기획 정치기획 경제기획 사회기획 문화기획 종교기획 전국기획 기자수첩 English News 천지TV 전체 정치 경제 사회 문화 종교 연예 스포츠 오피니언 기획 English News 이용안내 신문사소개 구독신청 고객센터 이용약관 개인정보취급방침 청소년보호정책 이메일무단수집거부 고충처리제도 RSS 전국 제주 천지포토 [제주] 초겨울 날씨에도 제주도 관광지는 ‘북적’ 김미정 기자 승인 2015-11-27 23:38 이 기사를 공유합니다. close 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 핀터레스트 httpURL복사 글자크기 설정 close 가 가 가 가 가 ▲ 27일 제주도의 동쪽에 있는 성산 일출봉에 관광객들이 북적이고 있다. ⓒ천지일보(뉴스천지) ▲ 27일 제주도 성산 일출봉을 찾은 관광객들 ⓒ천지일보(뉴스천지) ▲ 27일 제주도 월정리 해수욕장 ⓒ천지일보(뉴스천지) ▲ 27일 제주도 월정리 해수욕장 ⓒ천지일보(뉴스천지) ▲ 27일 제주도에 비가 내린 후 무지개가 뜬 하늘 ⓒ천지일보(뉴스천지) ▲ 27일 제주도 해질녘의 하늘 ⓒ천지일보(뉴스천지) [천지일보 제주=김미정 기자] 27일 제주도 일부 산간도로가 눈으로 인해 차량 운행이 금지됐지만, 동제주에는 간혹 비가 내릴 뿐 성산포 일출봉과 월정리 해수욕장에는 관광객들이 방문하고 있다. 김미정 기자 voice6459@newscj.com 다른기사 보기 저작권자 © 천지일보 - 새 시대 희망언론 무단전재 및 재배포 금지 기사제보 지면구독신청 댓글 로그인 후 이용해주시기 바랍니다. 최신순 추천순 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 천지TV 영상송출채널 바로가기 천지오피니언 전체 천지시론 사설 칼럼 천지시론 ‘전쟁과 평화’… 전쟁은 선천(先天)의 유물, 평화는 후천(後天)의 영원한 유산 사설 피의자 ‘신상공개 사진’ 기준 필요하다 사설 감사원의 문재인 전 대통령 조사… 법적 절차에 따라 받아야 한다 칼럼 가보고 싶은 건축 천지시론 ‘전쟁과 평화’… 전쟁은 선천(先天)의 유물, 평화는 후천(後天)의 영원한 유산 천지시론 송구영신(送舊迎新)… 선천(先天) 종말과 후천(後天) 재창조 천지시론 해가 지지 않는 나라?… 이제 해가 졌고, ‘의로운 해(熙)’가 떠올라 천지시론 지금은 참 종교의 시대… 계시 받은 자 앞으로 나와야 하는 때 사설 피의자 ‘신상공개 사진’ 기준 필요하다 사설 감사원의 문재인 전 대통령 조사… 법적 절차에 따라 받아야 한다 사설 무역수지 6개월 적자, 경상수지도 적자로 가나 사설 국정감사는 입법부 고유 권한이다 칼럼 가보고 싶은 건축 칼럼 기후 재난은 불평등 문제다 칼럼 “네가 좀 와서 들어줄래?” 아동성범죄자 김근식이 출소한다 칼럼 경제위기와 경제질서 기획 [한국인 이만희 평화실화 FOCUS│HWPL과 루마니아&lt;5&gt;] HWPL과 약속 지킨 동유럽 수반들 “한반도 평화 통일지지” [한국인 이만희 평화실화 FOCUS│HWPL과 루마니아&lt;4&gt;] 동유럽 민주주의 주역들도 “이만희 대표와 함께 하겠다” 손들어 [현대이야기&lt;21&gt;] “삼성을 잡아라”… 메모리 반도체 개발에 사활 걸었던 현대전자 연중기획 중소기업강국코리아 코리아스페이스㈜ 스페이스케어 “코로나 바이러스 99.99% 사멸로 청해부대 등 집단감염 막는다” 신문사소개 기사제보 광고/제휴문의 구독신청 저작권문의/구매 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS (주)천지일보등록번호 : 서울 아00902등록일자 : 2009년 7월 1일제호 : 천지일보발행·편집인 : 이상면발행소 : 서울특별시 용산구 청파로89길 31 코레일유통 빌딩 3~5층발행일자 : 2009년 9월 1일전화번호 : 1644-7533청소년보호책임자 : 황금중사업자등록번호 : 106-86-65571통신판매업신고번호 : 2013-서울용산-00392대표자 : 이상면 「열린보도원칙」천지일보는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 강은영 02-1644-7533 newscj@newscj.com Copyright © 천지일보 - 새 시대 희망언론.  All rights reserved. mail to newscj@newscj.com</t>
-  </si>
-  <si>
-    <t>제주도 환상 자전거길 개통...234km의 아름다운 자전거 관광 만끽 - 시선뉴스 × 전체기사 시사 전체 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 타임즈(개편중) 지식‧교양 전체 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 TV스캔들(개편중) 지식·정보 전체 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 전체 사회·문화 엔터테인먼트 날씨 다큐멘터리 전체 시선 인터뷰 역사 기억 [memory, 記憶] 스토리오브코리아 뉴스 전체 이슈돋보기 대중문화 HOT키워드 상상마당 라이프 전체 건강·음식 인테리어 패션·뷰티 육아 자동차 여행·관광 360VR e-biz 애니멀 전체 신비한 동물사전 반려동물농장 애니멀TV 산업 전체 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 2022년 10월 첫째 주 육아 관련 정책 [육아 정책브리핑] 당치땡, 신메뉴 ‘텍사스 치베큐’ 출시’ 중소기업유통센터, 소상공인 지원하는 ‘벤자민권 시즌2’ 마무리 씽잉 콘텐츠 플랫폼 ‘썸씽’ 출신 모창능력자, 히든싱어7 최종라운드 진출 셀코스메트 셀맨, ‘울트라 바이탈 크림’ 등 신제품 10종 출시 가해자와 함께 있어 경찰에 도움 요청하기 어려울 때 ‘똑똑’ 보이는 112 [지식용어] [정책브리핑] 2022년 10월 04일 화요일 주요 정책 10월 04일 화요일, 오늘의 날씨와 미세먼지 농도 [인포그래픽] [오늘의 사자성어] 동행서주[東行西走] 한국열린사이버대학교 평생교육원 ‘10월 20일 개강’ 사회복지사 2급 교육 수강생 모집 [10년 전 오늘] 17회 부산국제영화제(BIFF) 개막...안성기-탕웨이 사회로 개막식 진행 2022년 10월 04일, 오늘의 띠별 운세 [인포그래픽] [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 車 주요뉴스, 기아·포드 등 10만대 리콜 – 휘발유·경유 기름값 내림세 [모터그램] 네이버TV 카카오TV 유튜브 네이버 포스트 facebook twitter kakao story 로그인 회원가입 모바일웹 시사 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 지식‧교양 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 지식·정보 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 사회·문화 엔터테인먼트 날씨 애니멀 신비한 동물사전 반려동물농장 애니멀TV 다큐멘터리 시선 인터뷰 키워드 한국사 기억 [memory, 記憶] 스토리오브코리아 뉴스 이슈돋보기 대중문화 산업 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 기사검색 검색 이전 다음 제주도 환상 자전거길 개통...234km의 아름다운 자전거 관광 만끽 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 이슈돋보기 제주도 환상 자전거길 개통...234km의 아름다운 자전거 관광 만끽 보도본부 | 온라인미디어팀 승인 2015.11.07 22:49 댓글 0 글씨키우기 글씨줄이기 메일보내기 인쇄하기 페이스북 트위터 구글 카카오스토리 블로그 기사공유하기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [시선뉴스] 환상 자전거길 등과 관련해 7일 행정자치부와 제주도, 제주도자전거단체협의회 등 동호회는 이날 서귀포시 성산읍 오조리 한도교 서쪽 주차장에서 ‘제주 환상 자전거길’의 개통식을 열었다. ▲ 제주도 환상 자전거길 개통으로 새로운 관광명소로 급부상하고 있다.(출처/픽사베이) 이번에 개통된 자전거길은 총 234km로 2010년부터 올해까지 해안도로와 일주도로를 따라 새로 정비한 183.3㎞와 기존에 이용하던 자전거길 50.7㎞을 연결해 교통량이 적은 해안도로를 활용해 제주도 한바퀴를 일주할 수 있는 형태로 조성, 6년 동안 총 357억6천만원(국비와 지방비 각 50％)이 투입됐다고 전해졌다.쇠소깎, 성산일출봉, 송악산 등 관광명소를 경유하고 있어 볼거리가 가득하며, 특히 남원에서 김녕 해변으로 이어지는 60km 해안도로 구간은 탁 트인 바다를 보며 제주도만의 풍경을 만끽할 수 있다.환상 자전거길 개통에 대해 “제주를 세계로 알리고 성장하는 인프라로 자전거길이 활용됐으면 한다”고 밝혔다. 원희룡 제주지사는 환상 자전거길 개통을 두고 “제주도와 도민들이 환상 자전거길이 발전할 수 있도록 자발적으로 관리해 나가자”고 알렸다. 저작권자 © 시선뉴스 무단전재 및 재배포 금지 보도자료 발송 및 기사제휴 ▶ sisunnews@sisunnews.co.kr 문의 ▶ 02-838-5150 연예·스포츠 인기뉴스 씽잉 콘텐츠 플랫폼 ‘썸씽’ 출신 모창능력자, 히든싱어7 최종라운드 진출 씽잉 콘텐츠 플랫폼 ‘썸씽’ 출신 모창능력자, 히든싱어7 최종라운드 진출 이틀 만에 입장 발표한 박민영 측, 열애설 관련 “현재는 이별한 상태” 이틀 만에 입장 발표한 박민영 측, 열애설 관련 “현재는 이별한 상태” 제이플랜, 10월 5일 디지털 싱글 (Nostalgia) 발매 확정 제이플랜, 10월 5일 디지털 싱글 (Nostalgia) 발매 확정 엑소(EXO) 찬열, 군 복무 마치고 팬들 곁으로... 그룹 내 다섯 번째 군필 멤버 엑소(EXO) 찬열, 군 복무 마치고 팬들 곁으로... 그룹 내 다섯 번째 군필 멤버 [카드뉴스] 헷갈리는 재활용...알고 보니 재활용되지 않는 품목들 [카드뉴스] 헷갈리는 재활용...알고 보니 재활용되지 않는 품목들 시사상식 노트7 [2022년 10월 첫째 주_시선뉴스] [카드뉴스] 반려조류는 어떻게 키워야 할까 #십자매 #카나리아 #문조 北 위협에도 DMZ 찾은 해리스 미 부통령, 굳건한 안보 확인 "평화로운 한반도 추구" [글로벌이야기] 여성 신도 성폭행-추행 혐의 정명석 총재 구속영장 신청 外 [오늘의 주요뉴스] 오늘의 주요뉴스 기사더보기 &gt; 온라인미디어팀 media@sisunnews.co.kr [정정보도문] 영화감독 김기덕 미투 사건 관련 보도를 바로 잡습니다 방탄소년단 ‘피땀눈물’, 1억뷰 돌파…유튜브 공개 후 4개월 바른정당 유승민 의원, IBK기업은행 PC오프제 체험...“칼퇴근 정... 오늘 이 영화 어때요? 1 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 2 [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ 1 [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ 2 [무비레시피] 칸에서 기립박수 받은 ‘감독’ 이정재의 첫 데뷔작, 영화 ’헌트’ [무비레시피] 칸에서 기립박수 받은 ‘감독’ 이정재의 첫 데뷔작, 영화 ’헌트’ 관련기사 [세컷뉴스]스마트폰이 보급되면서 사라진 것들 [시선뉴스] 자동차의 작은 상처를 치료해 주는 컴파운드 사용법 [자동차의 모든 것] “더 이상 아저씨라 부르지마” 오빠라 불리고픈 ‘노무족’ [지식용어] 많이 본 뉴스 종합 뉴스 1[오늘의 사자성어] 성의정심[誠意正心] 2[10년 전 오늘] 우리나라가 세워진 단기 4345년 개천절, 전국 곳곳서 경축행사 거행 3[정책브리핑] 2022년 10월 03일 월요일 주요 정책 4이번 주 별자리운세 '10월 03일~10월 09일' [인포그래픽] 5병역기피 논란 유승준, 명확한 ‘외국인과 재외국민’ 국적 요청 재판부 [지식용어] 62022년 10월 03일, 오늘의 띠별 운세 [인포그래픽] 7[무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 8車 주요뉴스, 기아·포드 등 10만대 리콜 – 휘발유·경유 기름값 내림세 [모터그램] 9[시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 10에듀윌, 경찰공무원 ‘김민현 경찰학 행정법 특강’ 무료 배포...“행정법 집중 학습” 1씽잉 콘텐츠 플랫폼 ‘썸씽’ 출신 모창능력자, 히든싱어7 최종라운드 진출 2이틀 만에 입장 발표한 박민영 측, 열애설 관련 “현재는 이별한 상태” 3제이플랜, 10월 5일 디지털 싱글 (Nostalgia) 발매 확정 4엑소(EXO) 찬열, 군 복무 마치고 팬들 곁으로... 그룹 내 다섯 번째 군필 멤버 5브로드웨이의 전설, 스티븐 손드하임이 남긴 위대한 걸작 ‘스위니토드’가 돌아온다! 6돈스파이크 필로폰 투약 혐의로 경찰에 체포... 1000회분 소지 7종합 격투 예능 ‘다이다이’, 100만 조회수를 돌파..."간결하고 빠른 진행 특징" 8산다라박 공항패션, 크리스찬 루부탱 스니커즈-가방으로 포인트 9MBN '뷰티풀! 맘마미아', 뇌동맥류 극복한 엄마 김혜자편 방영 10한화, 대우조선 품는다... 조건부 투자계약 체결-2조원 유상증자 방식 스타 인터뷰 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' [시선★피플] 화제작 ‘수리남’ 극 흐름 이끄는 ‘하정우’, 2023년 에미상 기대해볼까 [시선★피플] 화제작 ‘수리남’ 극 흐름 이끄는 ‘하정우’, 2023년 에미상 기대해볼까 [인터뷰360] 워커홀릭이 체질? 몸이 10개라도 모자랄 만능엔터테이너 회사 대표 '유빈' [인터뷰360] 워커홀릭이 체질? 몸이 10개라도 모자랄 만능엔터테이너 회사 대표 '유빈' 신문방송사소개 인사말 연혁 등록인증 윤리강령 저작권규약 광고·제휴 제공제휴사 개인정보취급방침 이메일무단수집거부 찾아오시는길 청소년보호정책 서울특별시 구로구 디지털로31길 20 (구로동) 에이스테크노타워 5차 1008호 편집인 : 박진아 발행인 : 김정우 청소년보호책임자 : 박진아 등록일 : 2012.08.01 인터넷신문 등록번호 : 서울 아03964 이메일 : sisunnews@sisunnews.co.kr 사업자번호 : 130-86-88882 대표전화 : 02-838-5150 팩스 : 02-851-2908 Copyright © 2022 시선뉴스. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 위로</t>
+    <t>"T맵에서 제주도 최신 관광정보 만나세요" | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 "T맵에서 제주도 최신 관광정보 만나세요" 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 "T맵에서 제주도 최신 관광정보 만나세요" 송고시간2015-11-30 09:43 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 윤보람 기자 기자 페이지 (서울=연합뉴스) 윤보람 기자 = SK플래닛은 모바일 내비게이션 T맵에서 제주도의 주요 관광지와 숙박, 렌터카 등 여행 관련 정보를 제공한다고 30일 밝혔다. 제주특별자치도관광협회가 제공하는 최신 관광 정보와 T맵의 빅데이터를 기반으로 분석한 계절별, 테마별 인기 관광 정보 등을 만나볼 수 있다. 제주도에서 T맵을 켜고 목적지를 검색하면 추천 관광지와 함께 주변 매장들의 정보가 노출되며 제주여행포털 '하이제주'(www.hijeju.or.kr)와 연계한 제휴할인 쿠폰도 제공된다. 광고 이와 함께 SK플래닛은 제주도를 찾은 관광객이 렌트 차량에서도 편리하게 T맵을 사용할 수 있도록 도내 주요 렌터카 업체에 스마트폰 거치대 및 차량용 충전기를 무료로 제공할 계획이다. bryoon@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2015/11/30 09:43 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 서울서 50대 권총에 맞아…"극단적 선택 추정" 80대 아버지 흉기로 찔러 살해…60대 아들 검거 혼자 사는 70대 여성 살해하고 달아난 50대 검거 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 북, SLBM 요격회피 저수지서 쐈다…열차 이은 새 발사 플랫폼(종합) 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 선우은숙, 4살 연하 아나운서 유영재와 재혼 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 국감 2R '최대 격전지' 감사원 국감, 시작 9분만에 파행 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 31 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도-하이난 관광산업의 미래...경쟁보다는 상생을 | 아주경제 2022.10.11 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 제주도-하이난 관광산업의 미래...경쟁보다는 상생을 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 제주도-하이난 관광산업의 미래...경쟁보다는 상생을 기자정보, 기사등록일 입력 2015-11-30 16:56 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 하이난성관광위원회 천톄쥔 부주임. [사진 = 배상희 기자] 아주경제(하이커우) 배상희 기자 = 한‧중 자유무역협정(FTA) 시대 도래와 함께 관광교류 확대는 양국의 새로운 협력 모델로 떠올랐다. 양국을 대표하는 관광‧휴양 도서인 제주도와 하이난다오(海南島)가 올들어 본격적으로 추진하는 관광 및 인문교류 활동이 이같은 흐름을 대변한다. 지난달 28일 중국 하이난성(省) 하이커우(海口)시 국제회의전시센터에서 열린 '제16회 하이난 국제관광섬 환러제(歡樂節‧카니발)'는 제주도와 하이난, 나아가 한·중 양국 관광산업의 발전 및 교류 확대 가능성을 보여줬다. 행사에 참석한 하이난성관광위원회(海南省旅遊委) 천톄쥔(陳鐵軍) 부주임과 원희룡 제주도지사는 인터뷰를 통해 양국 관광산업이 나아갈 미래 방향을 제시했다. 경쟁보다 상생을 추구하되, 각자만의 개성과 강점을 살리는 차별화 전략을 강화하는 것이 핵심이다. ◆ 하이난, 초대형 인프라로 관광개발 본격화 천 부주임은 "향후 하이난은 세계적 관광지가 될 것이다. 우리는 자신이 있다"는 말로 하이난 관광산업의 미래를 제시했다.관련기사'20년 우정' 제주-하이난…추사-소동파간 세미나 개최'세계적 관광성지' 꿈꾸는 하이난...'제16회 국제관광섬 환러제' 개최 이는 '동방의 하와이'를 연상시키는 천혜의 자연경관에 대한 자신감과 함께 내년부터 본격적으로 전개될 인프라 개발에 대한 정부차원의 의지를 드러낸 것으로 풀이된다. 천 부주임에 따르면 현재 하이난 정부가 주력하는 관광산업 개발분야는 관광상품, 호텔, 교통, 면세점이다. 향후 하이난성은 골프장과 호텔, 온천, 음식, 민족문화 등을 연결한 '종합적 성격'의 관광상품을 개발할 계획이다. 특히 젊은층 관광객의 기호를 고려해 스포츠를 응용한 새로운 상품개발에도 나선다. 현재 하이난은 하이커우의 씨하이안(西海岸), 싼야(三亞)의 하이탕(海棠)만 등 해안주변 관광지와 호텔개발에 주력하고 있다. 현재 하이난 전체에서 운영되는 글로벌 호텔은 70개까지 늘어났다. 천 부주임이 가장 힘줘 소개한 분야는 교통인프라 구축이다. 내년이면 동부와 서부 고속철이 모두 완공되면서 섬 전체 해안선을 잇는 시속 200km/h의 고속철도 관광노선이 생겨난다. 전세계 열대섬 중 세계 최초다. 특히 고속철이 통과하는 해안 관광노선의 풍광이 제일 아름다운 만큼, 다양한 관광상품을 개발할 수 있다는 게 천 부주임의 설명이다. 또 천 부주임은 교통인프라를 연계한 '면세점 관광' 확대도 계획 중이라고 말했다. 싼야의 세계 최대 면세점과 하이커우 메이란(美蘭)공항 면세점의 경우 제2기 확장공사를 통해 향후 운영면적은 각각 20만㎡와 10만㎡ 이상 넓어질 전망이다. 현재 정부로부터 개발 비준을 받아낸 하이커우 관란후(观澜湖) 면세점도 건설이 예정됐다. 천 부주임은 러시아에 이어 두 번째로 큰 비중을 차지하는 한국인 관광객 유치 전략도 소개했다. 하이난은 내년부터 한국의 대형 항공사 및 여행사, 호텔과의 합작을 확대하고 항공과 배편 노선도 확충할 계획이다. 이를 통해 올해 하이난을 찾은 입국 관광객은 연인원 60만명, 향후 3~4년간에는 연인원 100만명으로 늘어날 전망이며 특히, 올해 하이난을 방문한 한국 관광객 수는 160% 이상(연인원 3만~4만) 증가할 것으로 예상했다. 천 부주임은 "하이난과 제주도는 서로에게 배워갈 수 있는 점이 많다"면서 "매년 '섬 관광 포럼' 등을 통해 의견을 교환하는 것을 비롯해 여행객간의 교류, 관광 상품 홍보에 있어 서로에게 도움을 줄 수 있다"고 말했다. 11월 28일 중국 하이난성(省) 하이커우(海口)시 국제회의전시센터에서 열린 '제16회 하이난 국제관광섬 환러제(歡樂節‧카니발)'에서 원희룡 제주도지사가 축사를 하고 있다. ◆제주도, '질적 성장'으로 승부해야 원희룡 제주도지사는 하이난을 규모면에서는 따라갈 수 없는 만큼, 질적인 관광개발을 통해 경쟁력을 확보해야 한다고 강조했다. 원 도지사는 "중국 정부가 고속철, 비행장, 크루즈항 구축 및 IT 바이오 관광콘텐츠 개발에 많은 투자를 하고 있어, 규모나 속도면에서 배울 게 많다"면서 "하이난 방문을 통해 제주만의 개성과 매력을 고민해야 한다는 점을 느꼈다"고 말했다. 이어 "당분간은 일본을 겨냥해 양보다 품질면에서 경쟁력 확보에 주력할 것"이라면서 "단 중국도 관광품질을 높이는 만큼, 제주도가 앞서지 않으면 묻힐 수 있다는 위기감도 있다"고 전했다. 이에 원 도지사는 제주도가 가진 높은 환경보존율과 깨끗한 자연조건을 활용해 문화적 힐링 등의 고급화 전략을 추진해야 한다고 강조했다. 또 무료 공용 와이파이와 사물인터넷 기술을 활용한 스마트관광, 스마트에너지 기술 등을 활용하는 방향도 제시했다. 원 도지사는 "제주도와 하이난은 직접적인 경쟁보다 보완관계가 강하다"면서 "서로의 관광상품을 홍보하고, 크루즈항 직항편 보완을 통해 교류활동을 확대하는 등으로 협력할 여지가 많다"고 강조했다. #원희룡 #제주도 #하이난다오 #FTA 좋아요0 화나요0 추천해요0 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 실시간 인기 종합 경제 정치 사회 모바일 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3中 20차 당대회 앞두고 코로나 또 '비상'...국경절 연휴 영향 4국경절 연휴 마친 증시…호재 뒤늦게 반영할까 5尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 69월 CPI·FOMC 의사록·어닝시즌에 "불안감 증폭" 7세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5버거에 꽂힌 유통·식품업계 3세들 6창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 7'판매'보다 '모객' 집중... 전시에 꽂힌 유통가 1尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 2'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 3커지는 유승민 존재감 vs 견제구 던지는 안철수·나경원…빨라지는 與 차기 당대표戰 4'고작 2%' 과학기술 公기관 '장애인 고용률'···부담금만 331억 지출 5​'국감 데뷔' 이복현…공매도·전산장애·고위험상품 3대 허들 기다린다 6김두관 의원 "코레일 근무태만 천태만상 심각" 7'핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달라진 네 가지 포인트 1쌀쌀한 날씨 계속…찬바람 불어 체감온도 '뚝' 2감사원 국감 D-1...여야 '강대강' 격돌 예고 3베트남문화축제 광주에서 열려...위로하고 다짐하고 "오늘은 즐거운 날" 4대구 달성군, 취임 100일 최재훈 군수… 군민이 빛나는 달성 5강원도관광재단, 전국 최초 워케이션 상담회 개최 6前우체국 집배원 유용식씨, 퇴직 후에도 이웃사랑 실천 7수원시, 3년 만에 대면으로 열린 '제59회 수원화성문화제' 성료 1세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2버티거나 매각하거나…M&amp;A 스타트업 면면은 3"내년 '아크' 상용화 '박차'…최대한 빠른 시일 내 추진할 것" 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 6세계 3대 디자인 시상식서 존재감 키우는 韓 IT기업들 7숏폼 '틱톡', 해외 향한 韓기업 광고 수단으로 눈길 오늘의 1분 뉴스 세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2년만에 독 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 경기 불황에…3분기 스타트업 M&amp;A 46건 '올해 최대' 반도체 중국 수출 통제 여파 급락…나스닥 2년래 최저 '핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달리진 네 가지 포인트 존재감 키우는 유승민 vs 견제나선 안철수·나경원…與 차기 당권 경쟁 우크라 키이우, 출근길 피투성이 불바다…푸틴 "보복 공격" 인정 포토뉴스 첫눈으로 하얗게 변한 지리산 천왕봉 가을 정취 만끽하는 시민들 무주 덕유산의 상고대 100만 인파가 바라본 서울세계불꽃축제 2022 아주 글로벌 中國語 English 日本語 Tiếng Việt 日本旅游走起！ Hyundai Mobis' new infotainment platform debuts at trade fair in Germany 尹大統領の支持率32%・・・1週間で0.8%p↑ Samsung tuyên bố trung lập carbon vào năm 2050 주요기사 미·중 싸움에 韓 반도체 멍든다 버냉키 등 美경제학자 3인 노벨경제학상 바이든 "러시아, 부당한 공격 중단해야…美 우크라 계속 지원" 대통령실 "한미일 연합훈련, 文정부 합의...'친일 프레임' 의아" 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 관광 취업연결시스템 ‘굿잡제주’ 운영 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 관광 취업연결시스템 ‘굿잡제주’ 운영 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회, 관광 취업연결시스템 ‘굿잡제주’ 운영 기자명 고연정 기자 입력 2015.11.30 10:04 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 관광부문 전문 취업연결시스템 ‘굿잡제주’[제주도민일보=고연정 기자] 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 도내 관광사업체 인력난 해소 및 청년 취업률 증진을 위해 구인·구직 취업연결시스템 ‘굿잡제주’를 구축해 지난 16일부터 운영하고 있다고 밝혔다.‘굿잡제주’는 관광부문 전문 취업연결시스템으로 도내 관광사업체 채용정보 및 인재정보를 동시에 제공하고 있다. 누구나 간편하게 이용할 수 있는 각종 관광관련 자료와 교육정보를 제공할 계획이다.도관광협회는 ‘굿잡제주’ 가입자를 대상으로 모바일 기프티콘을 증정하는 ‘선착순 가입이벤트’를 진행하고 있다.또 도내 대학생 대상 설명회와 더불어 30일에는 제주고등학교 학생 200여명을 대상으로 ‘굿잡제주’ 설명회를 열 예정이다.도관광협회 관계자는 “전국 17개 시·도 가운데 제주도 고용률은 전국 1위인 반면 청년고용률은 8위에 그친다”면서 “관광사업체와 청년 구직자 간 미스매치 되는 부분을 해소하기 위해 다양한 방안을 강구하고, 향후 청년고용률 증진을 위한 취업 인큐베이팅 센터를 개설해 운영할 계획이다”고 설명했다. 고연정 기자 jjibi@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 내국인 관광객, 사상 첫 1천만 명 돌파 &lt; 사회일반 &lt; 사회 &lt; 기사본문 - OBS경인TV 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 기사검색 검색 홈 뉴스O 경인PICK 뉴스 브런치 분야별 다시보기 제보 편성표 채널안내 OBS 실시간 뉴스 [경인투데이] 전체 보기 헤드라인 신규 확진 1만 5천 명대…오늘부터 개량 백신 접종 윤 대통령 "담대한 구상 유효…어떤 우려도 정당화 못해" 주호영 "북 도발, 민주당 정권이 대응 제대로 안 한 결과" 민주당 "여가부, 폐지 아닌 확대 필요"…정부조직개편안에 공식 반대 정청래, 'OBS 단독' 언급…"자위대 '수륙기동단' 훈련 참여 따져봐야" 한일 국장급 협의…강제징용 해법논의 주목 경기도 누림통장 '중증 장애 청년에게 희망을' 경기도, 중소기업·도민에 지식재산 서비스 강화 추진 facebook twitter youtube 본문영역 이전 기사보기 다음 기사보기 제주도 내국인 관광객, 사상 첫 1천만 명 돌파 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회일반 제주도 내국인 관광객, 사상 첫 1천만 명 돌파 기자명 권현 입력 2015.11.28 20:48 본문 글씨 줄이기 본문 글씨 키우기 바로가기 다른 공유 찾기 공유하기 페이스북 페이스북(으)로 기사보내기 트위터 트위터(으)로 기사보내기 카카오스토리 카카오스토리(으)로 기사보내기 카카오톡 카카오톡(으)로 기사보내기 네이버블로그 네이버블로그(으)로 기사보내기 URL복사 URL복사(으)로 기사보내기 닫기 제주도를 찾은 내국인 관광객이 올해 사상 처음으로 1천만 명을 넘어섰습니다.제주도관광협회에 따르면 올들어 이달 27일까지 제주를 찾은 내국인 관광객은 1년 전보다 21.9% 늘어난 1천만 6,645명으로 잠정 집계됐습니다.제주를 찾은 내국인 관광객은 2013년 851만 7,417명, 지난해 895만 9,447명에서 올해 처음 1천만 명을 넘어 역대 최다 기록을 작성했습니다.반면 같은 기간 제주를 찾은 외국인 관광객은 242만 6,485명으로 1년 전보다 70만 명 가까이 줄었습니다.관광협회는 국내선 항공편 공급 좌석이 늘면서 산악·골프·올레길 등을 즐기려는 소그룹 단체 관광객과 개별 관광객, 가을 수학여행단 수요가 늘었고 메르스 사태로 외국인 관광객이 국내 관광객으로 대체된 것으로 분석했습니다. OBS 뉴스는 언제나 여러분의 제보를 기다립니다. ▶ 전화 032-670-5555 ▶ 이메일 jebo@obs.co.kr ▶ 카카오톡 @OBS제보 권현 기자 14060413@obs.co.kr 기자의 다른 기사 저작권자 © OBS경인TV 무단전재 및 재배포 금지 유튜브 1기 신도시 대표주자 일산, 재건축은 언제?... 이용우 의원이 말하는 '신도시 특별법'이 제정돼야 하는 이유 [인사이드 스토리] 전설의 '서울대 경제학부 82학번'... 카카오뱅크 대표였던 이용우가 '스톡옵션 52만 주'를 포기하고 정치에 뛰어들게 된 사연은? [인사이드 스토리] "장애인? 상관 없어, 나랑 같이 일 하는 것만 아니면"... 충격적인 '장애인 일자리'의 실태 [인사이드 스토리] 태어난 지 1년이 채 안된 아이에게 찾아온 '소아마비'... 평생 하반신을 쓰지 못한 그가 장애를 극복한 이야기 [인사이드 스토리] 추천인기 한 뼘 더 1 [단독] '일본해 수정' 미, 해상자위대도 "일본 해군" 호칭 2 정조대왕 능행차 마지막 날…인파 북적 3 4km 떨어진 초등학교…십수 년째 학교 설립 제자리 4 한국은행 기준금리 0.5%p 인상 나서나 5 북 탄도미사일 2발 발사…'강원도 문천' 이례적 6 러시아 보급로 '크림대교' 폭발…보복 조치할까 1 [한 뼘 더] 지역 막걸리도 "고급화"…소비자는 "값싼 술" 2 [한 뼘 더1] [단독] 인천구치소, 수용자 사망 사건 축소·은폐 의혹 3 [한 뼘 더2] [단독] '인권·관리 사각지대' 인천구치소 4 [한 뼘 더] 기업들 "최악의 경제위기 해법은 고객 경험" 5 [한 뼘 더] 쟁의권 보장 vs 재산권 침해…'노란봉투법' 쟁점 6 [한 뼘 더1] 지역화폐, '민생경제 효자' 역할 톡톡…"축소 아닌 확대해야" 주요 뉴스 윤 대통령 "담대한 구상 유효…어떤 우려도 정당화 못해" 한일 국장급 협의…강제징용 해법논의 주목 주호영 "북 도발, 민주당 정권이 대응 제대로 안 한 결과" 민주당 "여가부, 폐지 아닌 확대 필요"…정부조직개편안에 공식 반대 신규 확진 1만 5천 명대…오늘부터 개량 백신 접종 하단영역 하단메뉴 OBS소개 광고 및 제휴 영상판매 이용약관 개인정보처리방침 청소년보호정책 시청자센터 관련 사이트 OBSW뉴스 OBS W 매체정보 OBS경인TV 대표이사 : 김학균 방송편성책임자 : 이선희 개인정보관리책임자 : 신성호 청소년보호책임자 : 신성호 경기도 부천시 오정로 233 (우)14442 전화 : 032-670-5000 팩스 : 032-671-2096 사업자등록번호 : 130-86-22783 OBS경인TV 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 OBS경인TV. All rights reserved. 위로 전체메뉴 전체기사 정치 전체 대통령실 국회/정당 외교/국방 북한 행정 정치일반 경제 전체 생활경제 금융/증권 부동산 산업/기업 국제경제 경제일반 사회 전체 법원검찰 사건사고 교육 인권/복지 노동 생활건강 날씨 사회일반 경인코로나현황 문화 국제 스포츠 전체 야구 축구 농구/배구 골프 일반 렌즈로 보는 세상 드론뉴스 경인세상 전체 경기 인천 경인동정 즐거운 경인 연예 건강 날씨 IT/과학 다시보기 생활 OBS플러스 전체 드라마 독특한 연예뉴스 가요 영화 연예가 화제 방송 인터뷰 공연 포토 트래블 전체 주요뉴스 여행사 항공사 국내여행 비즈플러스 기획취재 여행톡톡 MORE 포커스CEO인터뷰 전기홍기자의 감성여행 알려줘, 여행 BEST추천여행 TEST 기동취재 뉴스디거 전체 간추린 오늘 접속각 인사이드 스토리 VOD 경인팩트체크 국민공감 2022 뉴스 브런치 전체 인섬 뉴스 클로징 + 더하기 인터뷰 + 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도·관광업계, 수학여행단 유치에 팔 걷어붙였다 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도·관광업계, 수학여행단 유치에 팔 걷어붙였다 26~27일 호남지역 교육 관계자 현장답사 진행 (제주=뉴스1) 고경호 기자					| 2015-11-26 16:26 송고 | 2016-01-31 19:59 최종수정 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주도와 제주관광협회(회장 김영진)는 26일부터 27일까지 이틀간 전남교육청 소속 교육 등을 초청, 도내 일원에서 제주 수학여행단 유치 확대를 위한 호남지역 교육 관계자 현장답사를 진행하고 있다. (사진=제주관광협회). © News1 제주도와 제주도관광협회가 2016년도 수학여행단 유치에 팔을 걷어붙였다.제주도와 제주관광협회(회장 김영진)는 26일부터 27일까지 이틀간 전남교육청 소속 교육 등을 초청, 도내 일원에서 제주 수학여행단 유치 확대를 위한 호남지역 교육 관계자 현장답사를 진행하고 있다.   이에 앞서 제주도와 제주관광협회는 사전 전남교육청과 연계해 2016학년도 제주 수학여행을 계획(준비)하고 있는 중ᐧ고등학교 교원 등을 대상으로 참가 신청을 받았다.이번 답사에서는 제주 수학여행의 안전성, 우수성 등을 어필하고, 국내 유일의 유네스코 지정 세계자연유산에 빛나는 제주의 자연, 역사, 문화, 즐길거리 등 청소년들이 직접 체험·만끽할 수 있는 소재들을 대상으로 진행되고 있다. 특히 이번 답사는 행사 참가 교원들이 도내 수학여행으로 학생들이 선호할 만한 관광지 등을 우선 추천토록 해 진행하고 있다.제주관광협회는 이번 답사에서 관계 공무원에 의한 ‘믿고 즐길 수 있는 안심 수학여행 서비스’에 대한 설명을 실시했다.또 제주관광협회는 이번 답사에서 지난 7일부터 목포~제주를 야간 운항하고 있는 씨스타크루즈호에 승선해 선내에서 선박 안전 설명회 및 체험할 수 있는 기회도 제공했다.김영진 제주관광협회장은 이와 관련, “이번 현장답사를 통해 호남지역에의 제주 수학여행 메리트를 확산시켜 나감으로써 2016년도 제주 수학여행 ‘붐’ 조성을 선도하는 한편 실수요과 연결될 수 있도록 노력해 나갈 계획”이라고 말했다.한편 올해 들어 지난 10월 말까지 제주를 방문한 수학여행단은 23만6000명이며 이는 지난해 같은 기간에 비해 60.9% 증가한 수치다. uni05@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 신혜성, 도난차량서 음주측정 거부하다 체포 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>이효리 근황 포착 "제주도 집 관광지 아냐, 심한 스트레스" × 로그인 회원가입 전체기사 실시간 랭킹 정치 정치일반 대통령실 국회 정당 북한 국방·외교 사회 사회일반 사건사고 교육 노동 언론 환경 인권·복지 식품·의료 지역 인물 수도권 경기남부 경기북부 인천 경제 경제일반 금융 증권 산업 재계 중기 벤처 부동산 글로벌경제 생활경제 IT/과학 IT일반 과학일반 모바일 인터넷·SNS 통신 보안·해킹 컴퓨터 게임 리뷰 연예 연예일반 TV 영화 음악 스타 스포츠 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 UFC 생활문화 생활문화일반 건강정보 자동차·시승기 도로·교통 여행·레저 음식·맛집 패션·뷰티 공연·전시 책 종교 날씨 세계 세계일반 아시아·오세아니아 북미 중남미 유럽 중동·아프리카 오피니언 포토 D-TV 착한선진화 제보하기 사진구매 모바일 버전 연예 연예일반 TV 영화 음악 스타 공유하기 페이스북 트위터 카카오톡 주소복사 이효리 근황 포착 "제주도 집 관광지 아냐, 심한 스트레스" 입력 2015.11.24 06:43 수정 2015.11.24 06:42 스팟뉴스팀 가수 이효리 근황이 포착된 가운데, 관광객들을 향한 호소가 새삼 화제다. ⓒ이효리 페이스북 가수 이효리 근황이 포착된 가운데, 과거 지나친 관심에 고통을 호소했다. 이효리는 과거 자신의 페이스북에 "친애하는 제주도 관광객 여러분들 죄송하지만 저희 집은 관광 코스가 아닙니다"라며 관광객들의 지난친 관심에 대해 자제해줄 것을 부탁했다.이어 "아침부터 밤까지 하루에도 수십 차례 울리는 초인종과 경보음으로 저희 모두 심한 스트레스를 받고 있다"며 "참고로 저희 집은 대문 밖에선 나무에 가려 집도 전혀 보이지 않는다. 힘들게 오셔도 헛걸음만 하실 수 있다"고 당부의 말을 남겼다.그러면서 이효리는 식사를 하는 모습이 담긴 사진을 올리며 “제가 사진도 많이 올릴 테니 서운해 마세요”라고도 적었다.뮤지션 이상순과 결혼한 뒤 제주도에 신혼집을 마련한 이효리는 소박한 일상을 블로그에 공개해 화제를 모은 바 있다. 한편, 이효리는 모든 활동을 중단한 채 휴식을 취하고 있다. 최근 정샘물이 그와 함께 찍은 사진을 공개하면서 근황이 포착됐다. ©(주) 데일리안 무단전재 및 재배포 금지 스팟연예 기자 (spotent@dailian.co.kr) 기사 모아 보기 &gt; +네이버 구독 0 0 관련기사 이효리 근황 포착, 정샘물 "늘 자랑하고 싶은 효리" '오마이비너스' 신민아 대기실, 뽀글뽀글 헤어스타일 제니퍼 로페즈 백댄서, 민망한 엉덩이 노출 사고 '내딸 금사월' 유재석 등장 시청률↑ 충격적 화가 비주얼 뮤지컬 '오케피' 배우, 오케스트라 체험 '리얼함 장착' 배우 윤영-전 수영 국가대표 정두희 '이혼 소송' 스팟연예 기자가 쓴 기사 더보기 세정 화보, 명랑 벗고 '걸크러시' 반전 매력 '전참시' AOA 타짜 변신, 털털 매력 '끝판왕' 박시연, 내추럴하고 세련된 매력 감탄 '라디오스타' 김영호, 육종암도 이겨낸 '기적의 산타클로스' 김숙 "남자친구는 이미 돈과 결혼한 것" 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 시사만평 더보기 삼성전자, 위기에 이성전자될라?…대만 TSMC의 역전 국민의힘 이젠 '훌훌'…이준석의 잘못 배운 정치 발목잡기에 '허송세월' 이게 뭡니까?…실수? 실력? 국군의 현무-2C 낙탄이라니? 국감 첫날, 국감장이야? 막장이야?…고성만 '난무' [2022 국감] 이복현 "BNK 회장 선출 절차 시중은행과 차이" 이복현 금융감독원장은 11일 BNK금융지주 지배구조와 관련해 '회장 선출 절차가 시중은행과 차이가 있는 것 같다"고 말했다.이 원장은 이날 국회에서 열린 국회 정무위원회 금감원 국정감사에서 강민국 국민의힘 의원이 "현재 BNK는 금융지주 회장 후보원에서 회장을 포함해 계열사 대표로 제한하고 있다"며 "2018년에 외부인사를 추천할 수 없도록 폐쇄적인 지배구조로 변경했다"고 지적하자 이같이 답했다.이날 BNK금융지주가 김지완 회장의 아들이 다니는 한양증권에 채권 발행을 몰아주고 있다는 지적에 대해서는 "해당 금융기관이 좀 더 투명하게… 국회 정무위, 금융감독원 국정감사 금융감독원 국정감사 답변하는 이복현 금감원장 [尹 출근길 한마디] "북핵 위협 견고히 대응…국민들, 걱정 말고 생업에 진력 다 하시길" "한미동맹·한미일 안보협력 바탕으로 잘 대비·대응'담대한 구상' 유효…北, 핵 통해 얻을 수 있는 것 없어전술핵, 한미가 조야 여러 의견 경청하고 따져보는 중이재명 '친일' 비판? 현명한 국민들이 잘 판단하실 것" [尹 출근길 한마디] "여가부 폐지는 여성·사회적 약자 보호 더 강화하기 위한 것" [尹 출근길 한마디] "한미동맹·한미일 안보협력 바탕으로 국민 안전 빈틈 없이 지킬 것" [미디어 브리핑] 서울시 감사위 "TBS 공정·객관성 개선 안 돼"…최종 경고 서울시 '미디어재단 TBS 기관운영 감사' 결과 보고서 공개감사위 "서울시민 세금 재원 운영…자금 집행 투명성 저해"최종적으로 '기관 경고'와 '기관장 경고' [미디어 브리핑] 검찰 "방통위 직원들, TV조선 평가점수 낮춰 달라고 요구" [미디어 브리핑] MBC 제3노조 "尹 비속어 문제라면, 이재명 욕설은 왜 보도 안 했나" 국민들은 지금? 더보기 尹 지지율 소폭 상승해 35.9%…순방 성과는 부정평가 60% [데일리안 여론조사] 국민 39.2% "김건희만 국감장 나와야"…"文만 나와야" 21.9% [데일리안 여론조사] 연예 많이 본 기사 더보기 1 신화 측 “만취 상태 신혜성, 본인 차 아닌지도 모르고 운전…변명의 여지 없어” 2 선우은숙, 유영재 아나운서와 재혼…“최근 혼인신고 마쳐” 3 '미우새', 박수홍 "가족들이 결혼반대" 언급 방송분 다시보기 삭제 4 김하정 "신선남에 성폭행 당해 결혼…이혼하려 낙태" 5 [35th 청룡영화제] 가슴 드러낸 손예진 "역대급 노출" 오피니언 더보기 서진형의 부동산포커스 갈 길이 먼 재건축초과이익환수제도 김규환의 핸디 차이나 中 정치국 상무위원 후보 후춘화·딩쉐샹·천민얼은 누구? 이진곤의 그건 아니지요 이재명 자신의 ‘형수 욕설’보다 더 ‘극단적’인 게 있을까? 하재근의 이슈분석 박민영, 헤어졌으면 그만 아닌가 정기수 칼럼 ‘역대 최악 영부인’ 김정숙, 수사 필요하다 [코인뉴스] 비트코인 2700만원대 깨지나…탄탄한 美 고용에 ‘휘청’ 실업률 3.5%로 지난달 대비 하락연준 긴축 속도조절론 기대감 꺾이며 하방 압력 [코인뉴스] 연준 매파적 발언 영향?...비트코인 2800만원대 약세 [코인뉴스] 상승세 보인 비트코인, 2900만원 장벽에 가로막혀 D-FOCUS 서현우 "'헤어질 결심', 탕웨이 정확한 발음 지도 덕분" 최대훈 "사람들에게 각인되지 않은 이미지, 나는 좋다" 장승조 "'모범형사' 두 시즌 성공, 내게 큰 자부심" 인사·부고·동정 더보기 [부고] 성인모(한국금융투자협회 수석전무)씨 부친상 [인사] 기재부 [부고] 이정렬(반도건설 대표)씨 모친상 [인사] 공정거래위원회 [인사] 금융위원회 오피니언 칼럼 기자의 눈 기고 시사만평 정치 정치일반 대통령실 국회 정당 북한 국방·외교 사회 사회일반 사건사고 교육 노동 언론 환경 인권·복지 식품·의료 지역 인물 수도권 경기남부 경기북부 인천 경제 경제일반 금융 증권 산업 재계 중기 벤처 부동산 글로벌경제 생활경제 IT/과학 IT일반 과학일반 모바일 인터넷·SNS 통신 보안·해킹 컴퓨터 게임 리뷰 연예 연예일반 TV 영화 음악 스타 스포츠 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 UFC 생활문화 생활문화일반 건강정보 자동차·시승기 도로·교통 여행·레저 음식·맛집 패션·뷰티 공연·전시 책 종교 날씨 세계 세계일반 아시아·오세아니아 북미 중남미 유럽 중동·아프리카 비쥬얼 뉴스 포토 D-TV 카드뉴스 Copyright ⓒ ㈜데일리안 All rights reserved. 회사소개 광고제휴문의 개인정보취급방침 저작권 규약 이용약관 임직원복지몰 제호: 데일리안 등록일: 2005.09.13 등록번호: 서울 아00055 발행인: 민병호 편집인: 이상준 주소 : 서울시 강서구 양천로583(우림블루나인 B동 508,509호) 전화 : 02-714-0770 FAX : 02-714-2969</t>
+  </si>
+  <si>
+    <t>제주도, 중국어 관광통역안내사 교육 - 불교공뉴스 × 전체기사 종합 지역뉴스 전체 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 서울시 대구시 강원도 인천시 경기도 광주시 전라남도 전라북도 부산시 울산시 경상남도 경상북도 제주도 충주시 제천시 괴산군 부여군 논산시 공주시 천안시 안동시 담양군 청양군 여수시 금산군 예산군 아산시 고양시 횡성군 증평군 성남시 하동군 속초시 음성군 순천시 경주시 광양시 나주시 화순군 목포시 신안군 무안군 종교 전체 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 전체 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈.기획 연합뉴스 전체 엑셀데이터 선거정보 경제일반 TV동영상 자동생성기사 UPDATED. 2022-10-11 12:08 (화) 로그인 회원가입 보도자료 모바일웹 전체 종합뉴스 지역뉴스 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 청양군 성남시 종교소식 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈·기획 연예뉴스 검색버튼 기사검색 검색 이전 다음 제주도, 중국어 관광통역안내사 교육 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 지역뉴스 제주도 제주도, 중국어 관광통역안내사 교육 지화 승인 2015.11.24 14:31 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 이 기사를 번역합니다 한국어 영어 일본어 중국어 프랑스어 스페인어 러시아어 인도네시아어 × [불교공뉴스-제주도] 제주특별자치도와 제주관광공사(사장 최갑열)는 중국 관광객 급증에 대비하여 11월 24일과 25일 양 일간 중국어 관광통역안내사 50명을 대상으로 제주도내 현장안내실습 교육을 실시했다. 이번 현장안내실습은 공항과 크루즈를 통해서 들어오는 중국인 관광객의 실제 이동 코스를 다니면서 신입 및 무(無) 경력자의 현장 실무 감각을 익힐 수 있도록 준비되었다. 이미 상반기에 4회차 관광안내실습을 진행하였고, 하반기 3개 과정으로 이번 5회차 (24일 : 용두암 ‣ 부두 ‣ 체험(염색,다도) ‣ 성산일출봉 ‣ 섭지코지) 및 6차 (25일: 공항 ‣ 한라수목원 ‣ 주상절리 ‣ 자연사박물관)의 코스로 진행되었다. 제주관광공사 관계자는 “중국인 관광객 안내 및 에티켓 홍보 등을 책임 지고 있는 통역안내사 역할의 중요성이 확대됨에 따라 관광통역안내사 육성 및 역량강화를 계속적으로 지원 할 계획”이라고 밝혔다. 저작권자 © 불교공뉴스 무단전재 및 재배포 금지 지화 다른기사 보기 기사가 마음에 드셨나요? 불교공뉴스는 창간 때부터 클린광고 정책을 유지하고 있습니다. 이것은 작은 언론으로서 쉬운 선택은 아니었습니다. 그럼에도 불구하고 불교공뉴스는 앞으로도 기사 읽는데 불편한 광고는 싣지 않겠습니다. 불교공뉴스는 아이 낳고 기르기 좋은 세상을 만드는 대안언론입니다. 저희 기사가 마음에 드셨다면, 좋은 기사 후원하기에 동참해주세요. 여러분의 기사후원 참여는 아름다운 나비효과를 만들 것입니다. 불교공뉴스 좋은기사 후원 계좌안내 농협 301-0234-1422-61 (손경흥 / 불교공뉴스) ※ 소중한 후원금은 더 좋은 기사를 만드는데 쓰겠습니다. 인기기사 1[영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! 2나태주풀꽃문학관, 제5회 풀꽃문학제 ‘두 사람’ 개최 3증평군, 트로트 가수 박군 홍보대사로 위촉 4[영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 5[영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! 6[영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! 7영동경찰서, 지역치안협의회 정기회의 개최 8계룡세계군문화엑스포 7일 개막 9부여군, “제68회 백제문화제 순항” 10[카메라 뉴스] 2022 괴산세계유기농산업엑스포 개막식 최신기사 옥천 ㈜더조은숲, 취약계층을 위한 꾸준한 연탄 나눔 한국농촌지도자옥천군연합회, 사랑의 쌀 기부 영동·김천·무주, 올해는 삼도봉 정상에서 변치않는 우정 확인! 영동군, 2022-2023절기 어르신 독감예방접종 12일부터 연령별 순차접종 영동군, AI·IOT기반 어르신건강관리 서비스 ‘만족도UP, 건강UP’ 옥천군 보건소 2022년‘비만예방의 날’기념 캠페인 실시 옥천군, ‘정신건강의 날’ 및 옥천군정신건강복지센터 개소 10주년 기념 행사 개최 오늘의 동영상 [영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! [영상뉴스] 유성구, 야경이 아름다운 제13회 ‘유성 국화전시회’ [영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! [영상 / 포토] 충남 부여에서 열리는 제68회 백제문화제! [영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! [영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 [불교공뉴스·TV 힐링대담] JB가든센터 '대림묘목농원' 김정범 대표 [포토뉴스] 지용제, 3년 만에 구읍을 詩끌북적하게 하며 성료 포토뉴스 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 충청북도 옥천군 지용로 142 대성사 사업자명 : 손경흥 사업자번호 : 688-03-01080 대표전화 : 043-733-5559 팩스 : 043-733-5559 명칭 : 불교공뉴스 제호 : 불교공뉴스 등록번호 : 충북아 00049 등록일 : 2010-11-01 발행일 : 2010-11-11 발행인 : 혜철스님(손경흥) 편집인 : 손경흥 청소년보호책임자 : 이한배 불교공뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 불교공뉴스. All rights reserved. mail to webmaster@bzeronews.com 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 日 관광시장 활성화 민관협의회 본격 가동 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 日 관광시장 활성화 민관협의회 본격 가동 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협회, 日 관광시장 활성화 민관협의회 본격 가동 기자명 고병수 기자 입력 2015.11.26 15:47 수정 2015.11.26 17:16 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 가시적 성과없는 日 관광 민관대책협의회 확대 재구성 (제주=국제뉴스) 고병수기자 = 제주도와 道관광협회(회장 김영진)는 25일 제주웰컴센터에서 행정시(제주시, 서귀포시), 제주관광공사, 관광사업체(여행업, 관광호텔업, 카지노업, 외식업, 관광통역안내사, 면세점, 대한항공 제주지역본부)로 구성된 "일본 관광시장 활성화를 위한 민관 대책협의회”를 개최했다고 26일 밝혔다.이번 대책협의회에선 일본인 관광객이 지난 2012년 18만 327명 정점을 찍은 이후 매년 줄고 있고 올해 10월 현재 5만 5694명이 제주를 찾아 비상이 걸렸다.이는 엔저 영향 및 한일관계 악화 등으로 지속적 감소해 이에 따른 대책으로 일본 관광시장 활성화를 위해 지난해 12월 30일 대책 실무협의회를 구성했다.올해 1월 23일 1차 회의를 시작으로 매월 개최하고 있으나 뚜렷한 가시적 성과가 돌출되지 않는 상황에 일본 직항노선 재 운항 시점에 맞춰 도문화관광스포츠국장 중심에 도내 全관광사업체가 참여하는 대책협의회로 확대해 재구성하게 됐다. 이날 대책협의회에는 제주도, 협회, 공사의 장단기적 홍보마케팅 및 인센티브 지원, 이미지 광고, 대형이벤트 추진 계획 정보 공유와 함께 일본인 관광객 대상 환대 캠페인 전개, 잠재 수요 창출을 위한 타켓 세분화 전략, 일본 직항노선 탑승률 제고를 통한 활성화 방안 모색, 도 차원의 중국 바오젠 그룹과 같은 일본내 대형 인센티브단 제주 유치 등이 논의됐다.한편 오는 12월 1일부터 전 통역안내사 및 종사자를 중심으로 환대리본 의무부착과 주요 관광사업체별 할인 및 기념품 제공 등 다양한 특전 혜택을 통한 제주방문 일본인 관광객 대상 환대 캠페인 전개로 일본 관광시장 활성화를 위한 분위기 전환 발판을 마련할 계획이다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 중문관광단지 매입협상 잠정 중단 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도, 중문관광단지 매입협상 잠정 중단 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주도, 중문관광단지 매입협상 잠정 중단 CBS노컷뉴스 이 인 기자 메일보내기 2015-11-19 11:22 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 중문관광단지 매입·매각 협상이 한국관광공사 측의 요청으로 빨라야 내년 4월 이후에나 재개될 전망이다. 19일 제주도에 따르면 지난해 11월부터 한국관광공사와 진행 중이던 중문관광단지 매입·매각 협상을 잠정 중단하기로 했다.이 같은 결정은 최근 한국관광공사가 정부의 '문화창조융합벨트' 구축사업과 연계된 융·복합 상설공연장 건립을 위한 용역이 끝나는 내년 4월까지 협상을 유보해달라는 요청 때문이다.한국관광공사는 정부의 공기업 선진화 방침에 따라 중문단지 매각 방침을 세웠고, 지난해 11월19일 제주도에 우선협상 대상자로 제안하면서 양 측이 협상을 진행했다.앞서 제주도는 지난해 12월 1일 한국관광공사에 인수의향서를 제출하면서 골프장을 포함한 일괄 매입을 추진해왔다.양창호 관광산업경쟁력강화지원추진단장은 "정부와 한국관광공사가 시행하는 용역 진행상황을 수시로 파악해 대처하겠다"면서 "관광공사 측에서 용역 결과에 따라 사업을 제안해올 경우 인·허가 부서와 공동으로 대응방안을 마련하겠다"고 밝혔다.양 단장은 "융·복합 문화콘텐츠 사업이 관광단지 목적 사업에 반해 추진이 어렵더라도 '민간 매각 불가' 방침에는 변함이 없다"고 말했다. 더 클릭 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 "좋은 냄새난다" 병사들 상습 추행 …"징계 가혹"하다는 군 간부 [르포]'나눔이·농부' 판치는 다크웹…'마약과의 전쟁' 비웃나 러, 우크라 폭격 '보복' 인정…"푸틴 자존심 상처 때문" 복지장관 340만원, 청년 120만원…연금의 '세대격차' 금감원 '수상한 외환거래' 이달 중 검사 마무리 '명문' 스탠퍼드 대낮 성폭행 잇따라…대학은 책임 회피? 이복현 금감원장 "불확실성 상시감시, 금융시스템 안정 최선" CBS노컷뉴스 이 인 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도교육청.제주관광협회, 관광인재양성 MOU - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도교육청.제주관광협회, 관광인재양성 MOU 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 교육 제주도교육청.제주관광협회, 관광인재양성 MOU 오미란 headlinejeju@headlinejeju.co.kr 승인 2015.11.16 16:45 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도교육청과 제주특별자치도관광협회(회장 김영진)는 16일 관광인재양성 및 취업률 증진을 위한 업무협약을 체결했다. 두 기관은 이번 업무협약을 계기로 특성화고 학생을 대상으로 한 교육프로그램 공동개발과 관광사업체로의 취업연계, 관광인재의 구직정보와 관광사업체 구인정보 공유 등 구인구직자 매칭과 교류 활성화에 공동 노력키로 했다. 제주도교육청 관계자는 "이번 협약으로 관광제주의 인재양성 및 취업 매칭을 통해 제주도내 특성화고 학생들의 취업률 증진을 기대하고 있다"고 밝혔다.&lt;헤드라인제주&gt; &lt;오미란 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 오미란 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 "기반시설 없는 자연녹지에 관광숙박시설 불허" | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도 "기반시설 없는 자연녹지에 관광숙박시설 불허" 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도 "기반시설 없는 자연녹지에 관광숙박시설 불허" 송고시간2015-11-06 17:18 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 김호천 기자 기자 페이지 일반주거지역·자연취락지구도 신축 제한 (제주=연합뉴스) 김호천 기자 = 제주도는 상수도와 하수도 등 기반시설이 없는 자연녹지에 관광숙박시설 신축을 허락하지 않는다고 6일 밝혔다. 일정 도로폭을 확보하거나 다른 법에 저촉되지 않으면 허용됐던 일반주거지역과 자연취락지구의 관광숙박시설 신축도 승인하지 않는다. 관광숙박시설 신축이 허용되는 지역은 기반시설을 충족한 자연녹지와 상업지역, 준주거지역, 전체면적 660㎡ 이하의 계획관리지역이다. 광고 도는 이런 내용이 포함된 제주도 관광진흥 조례 개정안을 조만간 입법 예고한 뒤 내년 2월 제주도의회 의결을 거쳐 상반기 중 시행할 방침이다. 이는 관광숙박시설 과잉 공급의 가장 큰 요인으로 자연녹지에서의 관광숙박시설 신축인 것으로 지목됐기 때문이다. 2013년 이후 현재까지 상업·준주거·준공업·주거·자연녹지·계획관리지역에 승인된 관광숙박시설 총 300건 중 48%인 144건이 자연녹지에 몰린 것으로 분석됐다. 자연녹지에 있는 관광숙박시설의 객실 수는 7천452실로 전체 객실 수 1만8천748실의 39.7%를 차지했다. 공공하수도가 없는 자연녹지·계획관리지역에 관광숙박시설 승인 건수와 객실 수는 73건, 2천675실에 달했다. 도는 조례 개정과 동시에 토지 사용(수용)권 확보 의무를 강화하고, 비도시지역의 관광개발사업 기준도 강화할 방침이다. 내년부터는 관광숙박시설 신축에 필요한 관광진흥기금 지원을 중단하고, 대신에 기존 관광숙박시설에 대한 운영자금 지원을 확대한다. 내년 1월부터는 제주특별법 시행령이 개정돼 투자진흥지구 지정 투자 기준이 미화 500만불에서 4배나 많은 2천만불로 상향 된다. 김남선 도 관광산업과장은 "관광숙박시설 과잉 공급이 우려되고 있다"며 "관광숙박시설, 일반숙박시설, 휴양펜션, 민박 등을 통합관리하는 시스템을 구축해 숙박시설 총량을 체계적으로 관리하겠다"고 말했다. 제주발전연구원은 지난 8월 '제주지역 관광숙박시설 수요 공급 분석을 위한 기초연구'를 통해 2018년 관광호텔 기준으로 약 4천330실 이상 과잉공급될 것으로 예측했다. khc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2015/11/06 17:18 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 서울서 50대 권총에 맞아…"극단적 선택 추정" 80대 아버지 흉기로 찔러 살해…60대 아들 검거 혼자 사는 70대 여성 살해하고 달아난 50대 검거 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 북, SLBM 요격회피 저수지서 쐈다…열차 이은 새 발사 플랫폼(종합) 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 선우은숙, 4살 연하 아나운서 유영재와 재혼 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 국감 2R '최대 격전지' 감사원 국감, 시작 9분만에 파행 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 31 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>[제주] 초겨울 날씨에도 제주도 관광지는 ‘북적’ menu 초겨울 날씨에도 제주도 관광지는 ‘북적’ search add_circle close 정치 국회·정당 정치일반 대통령실·총리실 북한 외교·통일 국방 기자수첩 English News 경제 경제일반 기업·산업 IT·전자·과학 건설·부동산 금융·증시 자동차 유통 방송·통신 정책 기자수첩 English News 국제 국제일반 국제HOT뉴스 기자수첩 한줄로 보는 오늘 지구촌 Global Opinion 국제인사이드 English News 사회 사회일반 사건·사고 법원·검찰·경찰 교육·캠퍼스 노동·인권·여성 행정자치 식품·농수산 보건·복지·의료 환경·날씨 피플 교통 보훈 언론·미디어 기자수첩 English News 문화 전체 문화일반 단독 전통문화 문화재 만화 박물관 기자수첩 OTT·방송 공연·전시 문화인 영화 책마당 English News 종교 전체 개신교 천주교 불교 민족종교 세계종교 종단연합 기자수첩 종교인 종교문화 종교오피니언 English News 연예 가요 연예가 화제 연예일반 스타⭐ 천지라인⭐ 방송·TV 핫이슈 기자수첩 English News 스포츠 스포츠일반 축구 야구 골프 e-스포츠 배구 농구 바둑 기자수첩 English News 전국 서울 인천/경기 대전/세종 충청 광주/전남/전북 대구/경북 부산/울산/경남 강원 제주 기자수첩 English News 글마루 역사 종교 문화 기타 마루대문 천지매거진 기자수첩 English News 라이프 PR광장 패션·뷰티 교육·출판 육아 리빙 식품 웨딩 게임 여가·여행 공연·축제·박람회 컴퓨터·휴대폰·IT 창업·프랜차이즈 캠페인 부동산 English News 웰빙건강 의학정보 힐링정보 English News 비주얼뉴스 카드뉴스 English News 포토ZONE 전체 정치 경제 국제 사회 문화 종교 연예 스포츠 전국 글마루 라이프 웰빙건강 비주얼뉴스 특집 유통 대학 공기업 금융 기업 통신 자동차 English News 오피니언 천지시론 칼럼 사설 투고 ·기고 기자수첩 만평 시사카툰 가로세로 퀴즈 English News 기획 특별기획 정치기획 경제기획 사회기획 문화기획 종교기획 전국기획 기자수첩 English News 천지TV 전체 정치 경제 사회 문화 종교 연예 스포츠 오피니언 기획 English News 이용안내 신문사소개 구독신청 고객센터 이용약관 개인정보취급방침 청소년보호정책 이메일무단수집거부 고충처리제도 RSS 전국 제주 천지포토 [제주] 초겨울 날씨에도 제주도 관광지는 ‘북적’ 김미정 기자 승인 2015-11-27 23:38 이 기사를 공유합니다. close 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 핀터레스트 httpURL복사 글자크기 설정 close 가 가 가 가 가 ▲ 27일 제주도의 동쪽에 있는 성산 일출봉에 관광객들이 북적이고 있다. ⓒ천지일보(뉴스천지) ▲ 27일 제주도 성산 일출봉을 찾은 관광객들 ⓒ천지일보(뉴스천지) ▲ 27일 제주도 월정리 해수욕장 ⓒ천지일보(뉴스천지) ▲ 27일 제주도 월정리 해수욕장 ⓒ천지일보(뉴스천지) ▲ 27일 제주도에 비가 내린 후 무지개가 뜬 하늘 ⓒ천지일보(뉴스천지) ▲ 27일 제주도 해질녘의 하늘 ⓒ천지일보(뉴스천지) [천지일보 제주=김미정 기자] 27일 제주도 일부 산간도로가 눈으로 인해 차량 운행이 금지됐지만, 동제주에는 간혹 비가 내릴 뿐 성산포 일출봉과 월정리 해수욕장에는 관광객들이 방문하고 있다. 김미정 기자 voice6459@newscj.com 다른기사 보기 저작권자 © 천지일보 - 새 시대 희망언론 무단전재 및 재배포 금지 기사제보 지면구독신청 댓글 로그인 후 이용해주시기 바랍니다. 최신순 추천순 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 천지TV 영상송출채널 바로가기 천지오피니언 전체 천지시론 사설 칼럼 천지시론 ‘전쟁과 평화’… 전쟁은 선천(先天)의 유물, 평화는 후천(後天)의 영원한 유산(下) 사설 방역당국, 심상치 않은 코로나·독감 ‘트윈데믹’에 적극 대처해야 사설 무주 일가족 가스 중독 참사, 막을 길 없었나 가로세로 퀴즈 가로세로 낱말 퀴즈&lt;37&gt;, &lt;36&gt; 답 및 당첨자 발표 천지시론 ‘전쟁과 평화’… 전쟁은 선천(先天)의 유물, 평화는 후천(後天)의 영원한 유산(下) 천지시론 ‘전쟁과 평화’… 전쟁은 선천(先天)의 유물, 평화는 후천(後天)의 영원한 유산 천지시론 송구영신(送舊迎新)… 선천(先天) 종말과 후천(後天) 재창조 천지시론 해가 지지 않는 나라?… 이제 해가 졌고, ‘의로운 해(熙)’가 떠올라 사설 방역당국, 심상치 않은 코로나·독감 ‘트윈데믹’에 적극 대처해야 사설 무주 일가족 가스 중독 참사, 막을 길 없었나 사설 한국은행 빅스텝 결단은 과감해야 한다 사설 국정감사 이제부터라도 민생이 필요하다 칼럼 원자력발전 친환경 맞나 칼럼 연예인들이여, 성인이 됐으면 경제적으로 독립해야 한다 칼럼 국가안보는 국가존립의 핵심 칼럼 미국, 중국반도체 자립 자극 더했다 기획 [정치인사이드] ‘윤석열차’로 촉발된 대통령 풍자 논란… 과거 정부 땐 어땠나 [현대이야기&lt;22&gt;] 걸면 걸리는 ‘걸리버’ 기억 나시나요?… 추억이 된 현대전자 [한국인 이만희 평화실화 FOCUS│HWPL과 아프리카&lt;1&gt;] HWPL, 아프리카 각계각층에 “평화의 일 함께하자” 신문사소개 기사제보 광고/제휴문의 구독신청 저작권문의/구매 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS (주)천지일보등록번호 : 서울 아00902등록일자 : 2009년 7월 1일제호 : 천지일보발행·편집인 : 이상면발행소 : 서울특별시 용산구 청파로89길 31 코레일유통 빌딩 3~5층발행일자 : 2009년 9월 1일전화번호 : 1644-7533청소년보호책임자 : 황금중사업자등록번호 : 106-86-65571통신판매업신고번호 : 2013-서울용산-00392대표자 : 이상면 「열린보도원칙」천지일보는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 강은영 02-1644-7533 newscj@newscj.com Copyright © 천지일보 - 새 시대 희망언론.  All rights reserved. mail to newscj@newscj.com</t>
+  </si>
+  <si>
+    <t>제주신공항 서귀포 신산, 2025년 개항 목표..."제주도 관광 활성화" | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 제주신공항 서귀포 신산, 2025년 개항 목표..."제주도 관광 활성화" 입력 : 2015-11-11 00:12:27 수정 : 2015-11-11 00:12:27 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 제주신공항 서귀포 신산 (사진= YTN) 제주신공항 서귀포 신산, 2025년 개항 목표..."제주도 관광 활성화" 포화상태가 된 제주공항 문제를 해결하기 위해 서귀포 지역에 신공항 건설이 추진된다. 국토교통부는 제주도 서귀포 신산리 지역에 2025년 개항을 목표로 '제2제주공항' 건설을 추진한다고 밝혔다. 신공항이 건설돼도 현재 제주공항은 계속 운영된다. 국토부는 활주로 1개의 제2 공항을 만들 경우 공사비가 4조 천억 원으로 상대적으로 적게 들고 환경 훼손도 크지 않다고 설명했다. 제주공항은 중국인 관광객이 늘고 저가항공사 취항이 늘면서 항공수요가 지난해 2,320만 명에서 2020년에는 3,210만 명으로 늘 것으로 예측됐다. 제주신공항 서귀포 신산 소식을 접한 누리꾼들은 "제주신공항 서귀포 신산, 아직 멀었구나" "제주신공항 서귀포 신산, 완공될 때 중국인들 안오면 어쩌지" "제주신공항 서귀포 신산, 얼마나 클까" 등 다양한 반응을 보였다. 이슈팀 ent@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20151111000024 0101060500000 0 2015-11-11 0:12:27 2015-11-11 0:12:27 0 제주신공항 서귀포 신산, 2025년 개항 목표..."제주도 관광 활성화" 세계닷컴 이슈팀 0028f8cc-c883-4815-9315-2c6633fff652 ent@segye.com 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 23층 지붕 위 기인…양복 입고 활보, 왜? 2 머스크, 440억달러에 트위터 인수…계약파기 철회 3 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 4 에펠탑 아래 숲, 하마터면 사라질뻔∼ 5 터미네이터 속 ‘심판의 날’ 온다? 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 일본 현지 관광로드홍보 추진 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 일본 현지 관광로드홍보 추진 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 연재 기관/단체 제주도관광협회, 일본 현지 관광로드홍보 추진 신동원 headlinejeju@headlinejeju.co.kr 승인 2015.11.13 11:42 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 13일부터 17일까지 일본인 관광객 유치를 위해 제주도내 관광사업체들과 함께 공동으로 일본 현지에서 제주관광상품 로드홍보를 전개한다. 이번 로드홍보에서는 일본 현지에서 일본 관광시장의 조기 회복과 직항노선 안정화를 위한 홍보활동을 비롯해, 항공사 및 관서 제주도민회 등 관련기관을 방문해 민간차원의 협력 비즈니스 마케팅이 추진된다. 관광협회 관계자는 "이번 로드홍보를 시작으로 일본지역 우호교류단체와의 협력 비즈니스마케팅을 추진해 직항노선 운휴 및 철회에 따른 부정적 이미지를 조기 탈피하고 노선 부활에 따른 신규상품 개발을 업계와 적극적으로 추진하는 등 일본관광시장의 조기 회복을 위해 노력하겠다"고 밝혔다 한편, 제주관광협회는 지난 5일 일본인 관광객 유치 확대를 위ㅐ 여행업, 호텔, 면세점, 카지노, 통역안내사 등 일본 인바운드 관련 관광사업체와의 긴급 대책회의를 가진 바 있다. 이 자리에서는 각 사업체별로 특별 프로모션을 포함한 제주관광 신규상품을 기획키로 했다. &lt;헤드라인제주&gt; &lt;신동원 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 신동원 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 전설지 스토리텔링, 문화관광 이야기콘텐츠로 개발 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 전설지 스토리텔링, 문화관광 이야기콘텐츠로 개발 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 문화 제주도 전설지 스토리텔링, 문화관광 이야기콘텐츠로 개발 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.11.17 11:36 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주학센터 '제주도 전설지 현지조사' 보고서 발간 제주도에 전해져 내려오는 다양한 '전설'의 이야기가 문화콘텐츠로 개발된다. 제주발전연구원 제주학연구센터는 17일 '제주도 전설지 현지조사 및 자원화 방안'(책임연구자 좌혜경･현길언) 연구 보고서를 발간했다고 밝혔다. 이 연구는 제주 전역의 전설과 ‘전설지’를 조사하고 DB화해 마을유산 보전 및 자원으로 활용하는 것을 목적으로 하고 있다. 전설지의 존재 유·무를 확인하고 각 전설의 사회･문화적 기능을 확인해 지속보전과 활용의 가능성을 확인했다는 점에서 의미가 크다. 보고서에서는 '날개 달린 아기장수'나 장사와 같은 힘센 인물, 힘센 여성, 효자, 열녀에 관한 전설은 마을의 정체성을 확립하는데 중요한 소재가 되고 있어서, 적극적 관리를 위해 효자나 열녀 정려비를 정비해‘기념물’이나 ‘향토문화유산’ 등의 문화재로 지정할 필요가 있다고 제언했다. 또 제주도의 풍수전설이나 자연전설 관련 '전설지'는 땅의 의미를 더하는데, 제주의 생태환경과 함께 ‘생명의 땅’이라는 감성을 심은 관광자원지 조성이 필요다면서, 지역의 ‘전설지’ 스토리텔링으로 이야기 콘텐츠를 개발해이야기산업을 활성화하고, 이야기가 있는 올레길 조성을 제안했다. 연구자는 "제주사람들의 삶과 인식을 반영하면서 예부터 전해져 내려오는 이야기를 설화라고 하는데, 그 중에서도 전설은 증거물 곧 ‘전설지’가 있는 이야기유산"이라며 이를 체계적으로 보존하고 계승 발전시켜 나갈 것을 주문했다. 이번 조사자료 및 연구보고서는 제주학아카이브(www://jst.re.kr)에서 열람할 수 있다. &lt;헤드라인제주&gt; &lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 인도네시아와 관광교류 협력 업무협약 체결 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 인도네시아와 관광교류 협력 업무협약 체결 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 인도네시아와 관광교류 협력 업무협약 체결 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.11.10 13:25 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 관광객 유치증진 공동사업 등 협력 추진 제주특별자치도와 제주관광공사는 인도네시아의 마하다나 그룹과 한국의 이지웰페어의 관광교류를 통한 협력증진을 위한 업무협력 체결에 제주관광공사와 인도네시아 관광부가 확인서명을 했다고 10일 밝혔다. 현지시간 9일 오전 11시 인도네시아 관광부 14층 회의실에서 진행된 협약식에는 인도네시아 관광부 다당 리즈끼 라트만 차관, 제주관광공사 최갑열 사장, 마하다나그룹 무하마드 리즈키 프라타마 회장, 이지웰페어 김상용 사장, 현지 언론 등 관계자 50여명이 참석했다. 이번 협약식은 마하다나 그룹과 이지웰페어의 한국과 인도네시아 시장의 서비스 분야 진출을 위해 양 기업의 실질적인 교류와 협력증진을 목적으로 체결됐으며, 제주관광공사와 인도네시아 관광부가 확인서명을 해 신뢰성을 확보했다. 협약서는 양 국가의 교류 및 협력분야에서 제주와 인도네시아간의 관광객 유치 및 관광객 편의증진을 위한 협력, 사업의 효율적인 추진을 위한 관련정보의 공유, 기타 상호 교류협력 가능분야 발굴 및 공동 이익에 기여하는 내용이 담겨져 있다. 이지웰페어는 2003년 설립되어 선택적 복지제도와 관련된 국내 굴지의 서비스 회사로 선택적 복지시스템이라는 새로운 정보시스템 분야를 개척해 왔다. 마하다나 그룹은 인도네시아 자카르타에 기반을 둔 투자그룹으로 금융 솔류션, 운송, 임대사업과 관련된 자회사를 두고 있다. 앞으로 이지웰페어는 인도네시아에 복지서비스분야의 사업을 진출하여 인도네시아에 새로운 시장을 개척하고, 마하다나 그룹은 한국에 할랄문화인증센터 건립 등 인도네시아 관광객 편의증진 사업에 진출할 계획이다. 제주관광공사는 동남아 시장으로의 시장진출을 위해 인도네시아 관광객 유치 및 편의증진을 위해 인도네시아 관광부와 실질적 교류와 협력증진, 기업 인센티브 투어 유치를 위해 마하다나 그룹과의 긴밀한 협조체제를 만들어 나갈 예정이다. 최갑열 사장은 "인도네시아 관광객 유치를 위해서는 할랄문화 인증 및 편의증진을 위한 수용태세 개선이 반드시 필요하다"며 "인도네시아 관광객들이 안심하고 이용하기 위해서는 인도네시아 관광부의 협조가 반드시 필요한 만큼, 금번 업무협력을 통해 실질적 교류와 협력증진이 있을 것으로 기대된다"고 말했다. &lt;헤드라인제주&gt; &lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>강원일보</t>
+  </si>
+  <si>
+    <t>제주도 중국 잠재 관광객 유치 나선다 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 중국 잠재 관광객 유치 나선다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도 중국 잠재 관광객 유치 나선다 기자명 김승지 기자 입력 2015.11.10 17:49 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 도·제주관광공사 등 '중국국제여유교역회' 참가 제주도가 중국 내륙지역 잠재 관광객 유치를 위해 나선다.도는 13일부터 15일까지 제주관광공사와 제주관광협회, 16개 도내 여행업체와 함께 '2015 중국국제여유교역회(CITM)'에 참가한다.도는 박람회에 참가해 중국 내륙지역에 제주에 대한 인지도를 높이고 도내 관광업계는 중국 현지에서 제주 관광상품 및 자사 상품 마케팅을 진행한다.중국국제여유교역회(CITM:China Int'1 Travel Mart 2015)는 미국, 캐나다, 프랑스, 등 100여개 국가 및 지역의 2400개 부스가 전시되는 아시아 최대 규모 관광박람회다. 김승지 기자 김승지 기자 seungji0738@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 올레길 환경정화 봉사활동 전개 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 올레길 환경정화 봉사활동 전개 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도관광협회, 올레길 환경정화 봉사활동 전개 편집팀 headlinejeju@headlinejeju.co.kr 승인 2015.11.15 09:57 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 김영진)는 14일 한림항 비양도 선착장과 고내포구를 잇는 올레 15코스 일대에서 환경정화 봉사활동을 전개했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 부동산투자이민제 적용 지역 관광지 제한키로 - 한강타임즈 × 전체기사 정치 전체 청와대 국회 정당 행정/지자체 외교/국방 북한 정치일반 선거 경제 전체 주식 부동산 생활경제 금융 기업/산업 취업/직장인 국제경제 자동차 경제일반 증권 IT/모바일 전체 과학 인터넷 휴대폰/통신 게임 IT일반 사회 전체 사건/사고 노동 환경 복지 여성 교육 미디어 인물 사회일반 지역일반 국제 전체 일본 중국 아시아 미국 아메리카 유럽 중동 아프리카 영어뉴스 해외화제 국제일반 문화 전체 생활정보 연극/뮤지컬 영화 공연/전시 콘서트 여행/레져 종교 문화일반 연예 전체 연예가화제 TV/드라마 가요/음악 해외연예 연예일반 실시간 핫이슈 스포츠 전체 축구 해외축구 야구 해외야구 농구 배구 복싱 골프/레져 격투기 일반스포츠 지방 전체 지방의회 경기도 광주광역시 대구광역시 대전광역시 인천광역시 부산광역시 울산광역시 강원도 경상남도 경상북도 전라남도 전라북도 충청남도 충청북도 제주특별자치도 지방일반 서울자치구 전체 서울시 강남구 강동구 강북구 강서구 관악구 광진구 구로구 금천구 노원구 도봉구 동대문구 동작구 마포구 서대문구 서초구 성동구 성북구 송파구 양천구 용산구 영등포구 은평구 종로구 중구 중랑구 라이프 전체 생활정보 뷰티/패션 건강 도서/출판 음식/맛집 이벤트 성인정보 동영상 여론조사 전체 이슈 정치 경제 사회 문화/연예 스포츠/레져 교육/취업 여론시사 포토 전체 정치 사회 경제 국제 문화/생활 연예 IT/과학 알림 전체 본사알림 인사 동정 행사 부음 오피니언 전체 데스크칼럼 사설 시론 한줄뉴스 말말말 인터뷰 전체 정치 경제 사회 문화 연예 인물 시민기자 전체 정치 경제 사회 문화/연예 IT/과학 한국어 영어 일본어 중국어 프랑스어 스페인어 러시아어 인도어 베트남어 카카오스토리 트위터 페이스북 전체기사 모바일웹 rss LOG IN JOIN 전체 정치 청와대 국회 정당 행정/지자체 외교/국방 북한 정치일반 선거 경제 주식 부동산 생활경제 금융 기업/산업 취업/직장인 국제경제 자동차 경제일반 증권 사회 사건/사고 노동 환경 복지 여성 교육 미디어 인물 사회일반 지역일반 국제 일본 중국 아시아 미국 아메리카 유럽 중동 아프리카 영어뉴스 해외화제 국제일반 문화 생활정보 연극/뮤지컬 영화 공연/전시 콘서트 여행/레져 종교 문화일반 연예 연예가화제 TV/드라마 가요/음악 해외연예 연예일반 실시간 핫이슈 스포츠 축구 해외축구 야구 해외야구 농구 배구 복싱 골프/레져 격투기 일반스포츠 기사검색 검색 실시간뉴스 ‘성범죄자 김근식 10월 출소’... 문정복 의원, “학교전담경찰관 늘려야” 3년 만에 돌아온다…마포구, 14~16일 ‘새우젓축제’ 성동구 마장세림아파트 재건축 속도... 공공지원 용역 착수 영등포구, 신길뉴타운 6713번 버스노선 신설... 17일부터 운행 공효진·케빈오, 오늘(11일) 미국 뉴욕에서 비공개 결혼 bhc치킨, 대학생 봉사단체 ‘해바라기 봉사단’ 유기묘 돌봄 활동 전개 배준경 노원구의원 “월 100만원 수준 노인돌봄 처우 개선돼야” 고병준 마포구의원, "'자살률 1위' 마포대교 오명 이제는 벗자" 올 가을 가장 추운 아침…내일은 더 춥다 ‘통산 15승’ 박민지, 세계랭킹 16위 껑충..고진영 1위 수성 기사쓰기 기사쓰기안내 작성기사보기 내정보수정 이전 다음 제주도 부동산투자이민제 적용 지역 관광지 제한키로 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 시민기자 경제 제주도 부동산투자이민제 적용 지역 관광지 제한키로 장경철 기자 승인 2015.11.05 16:58 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 분양형 콘도에 치중됐던 무분별한 개발사업에 제동 제주에서는 부동산투자이민제 적용 지역이 관광지로 제한된다. 제주도는 법무부 고시가 개정됨에 따라 이달부터 부동산투자이민제 적용 지역을 변경한다고 5일 밝혔다. 부동산투자이민제는 콘도 등 휴양체류시설에 5억원 이상을 투자한 외국인에게 거주(F-2) 비자를 발급해주고 5년이 지나면 영주권(F-5)을 부여하는 제도다. 기존 제주에서는 관광단지와 관광지, 유원지, 지구단위, 농어촌관광단지 등에 부동산투자이민제가 적용됐다. 중국 자본이 제주로 유입되면서 외국인 투자 유치에 기여했지만 분양형 콘도 위주의 개발사업과 숙박시설 난립, 중산간 지역 등에 대한 난개발로 논란이 돼 왔다. 제주도는 관광단지와 관광지에 한해 부동산투자이민제를 적용하게 됨에 따라 분양형 콘도에 치중됐던 무분별한 개발사업에 제동이 걸릴 것으로 보고 있다. 한강타임즈는 언제나 여러분의 제보를 기다립니다. ▶ 전화 02-777-0003 ▶ 이메일 news@hg-times.com ▶ 카카오톡 @한강타임즈 &lt;저작권자 © 내 손안의 뉴스 '한강타임즈' 무단 전재 및 재배포 금지&gt; 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 정기후원인이 되어주세요. 매체명 : 한강타임즈 연락처 : 02-777-0003 은행계좌 : 우리은행 1005-702-873401 예금주명 : 주식회사 한강미디어 이 기사에 대해 어떻게 생각하시나요? 장경철 기자 2002cta@naver.com 기사더보기 &gt; 경기도 미분양 많이 줄어든 지역, 분양단지 노려볼까 봄 분양성수기, 사통팔달 교통 요충지, 분양 단지 잡아볼까 친환경 바람, 공원 인접 아파트 몸값 고공행진 페이스북 트위터 카카오스토리 네이버밴드 구글 주요뉴스 '전대 모드' 돌입 與, 당권 전초전 돌입...'유승민 돌풍' 견제 가시화 bhc치킨, 대학생 봉사단체 ‘해바라기 봉사단’ 유기묘 돌봄 활동 전개 올 가을 가장 추운 아침…내일은 더 춥다 공효진·케빈오, 오늘(11일) 미국 뉴욕에서 비공개 결혼 ‘통산 15승’ 박민지, 세계랭킹 16위 껑충..고진영 1위 수성 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 한강포토(만평) 한강인터뷰 이태인 동대문구의회 의장 마포구의회 채우진 복지도시위원장 김길성 중구청장 용산구의회 오천진 의장 김형대 강남구의회 의장 김영미 마포구의회 의장 더불어민주당 유동균 마포구청장 후보 44년 만에 구민 숙원 '삼표레미콘' 공장 철거 가능성 '제로' GTX-C 왕십리역 신설 확정 성과 중학교 신설ㆍ장터길 확장 등 공약 모두 해결 양준욱 강동구청장 예비후보 한강타임즈(공식) 인기기사 섹션인기 최근기사 1'전대 모드' 돌입 與, 당권 전초전 돌입...'유승민 돌풍' 견제 가시화 2여야 '사법전쟁' 속 국회의원 면책특권 폐지 담론 재부상 3감사원 국정감사, 여야 최대 격전지 부상...'밀정감사' 논란 쟁점화 4올 가을 가장 추운 아침…내일은 더 춥다 5‘통산 15승’ 박민지, 세계랭킹 16위 껑충..고진영 1위 수성 6고병준 마포구의원, "'자살률 1위' 마포대교 오명 이제는 벗자" 7bhc치킨, 대학생 봉사단체 ‘해바라기 봉사단’ 유기묘 돌봄 활동 전개 8영등포구, 신길뉴타운 6713번 버스노선 신설... 17일부터 운행 9코스피·코스닥, 내림세로 장 출발 10배준경 노원구의원 “월 100만원 수준 노인돌봄 처우 개선돼야” 정치 이재명 경기도지사 적합도 ‘타의 추종 불허’} 경제 삼성전자, 전남대와 ‘스마트캠퍼스 구현’ 맞손} IT/모바일 SKT, 증강현실 영상통화 ‘콜라’ 출시} 사회 '제주 4.3 사건', 증언담 보니..."온몸이 뜯어져 사람 꼴이 안돼, 그냥 죽이는 거였다"?} 문화 ‘Hi, POP - 거리로 나온 미술, 팝아트展’ ‘하이팝-아트페어’ 개최} 연예 '레드벨벳' 조이, 데뷔전 과거 사진 눈길...'통통한 볼살'} 스포츠 토트넘 손흥민, 여심 사로잡은 미소…‘시선 강탈’} 지방 제1회 빛고을 패밀리랜드 벚꽃 축제, 6일 개최} 서울자치구 성동구, 마을 탐험 4개 테마 코스 개발... ‘공정여행’ 눈길} 라이프 [오늘의 운세] 2018년 4월 4일 수요일} 1‘성범죄자 김근식 10월 출소’... 문정복 의원, “학교전담경찰관 늘려야” 23년 만에 돌아온다…마포구, 14~16일 ‘새우젓축제’ 3성동구 마장세림아파트 재건축 속도... 공공지원 용역 착수 4영등포구, 신길뉴타운 6713번 버스노선 신설... 17일부터 운행 5공효진·케빈오, 오늘(11일) 미국 뉴욕에서 비공개 결혼 6bhc치킨, 대학생 봉사단체 ‘해바라기 봉사단’ 유기묘 돌봄 활동 전개 7배준경 노원구의원 “월 100만원 수준 노인돌봄 처우 개선돼야” 8고병준 마포구의원, "'자살률 1위' 마포대교 오명 이제는 벗자" 9올 가을 가장 추운 아침…내일은 더 춥다 10‘통산 15승’ 박민지, 세계랭킹 16위 껑충..고진영 1위 수성 +?php include INCLUDE_PWD."news/autobox/autobox_new_40.htm"; ?+/&gt; 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 제호 : 한강타임즈 대표이사·발행·편집인 : 안병욱 기사·사진 저작권 관리자 : 김재태 편집·개인정보관리 책임자 : 황인순 청소년보호책임자 : 김광호 서울특별시 성동구 고산자로 202 (행당동.무학빌딩) 5층 (주)한강미디어(한강타임즈) 대표전화 : 02-777-0003 편집국 : 02-2299-7770 팩스 : 02-2299-2753 명칭 : (주)한강미디어 인터넷일간신문(한강타임즈) 등록번호 : 서울 아 00321 발행일·등록일 : 2007-02-09 통신판매업신고번호 : 서울성동-0244호 한강타임즈 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 한강타임즈. All rights reserved. &amp;nbsp&amp;lt자매지&amp;gt : 성동저널 기사제보·보도자료 : (한강타임즈 통합이메일) news@hg-times.com 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주이주희망자 '제주살이' 팸투어 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 제주이주희망자 '제주살이' 팸투어 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협회, 제주이주희망자 '제주살이' 팸투어 기자명 고병수 기자 입력 2015.11.04 15:10 수정 2015.11.04 15:18 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수기자 = 제주도관광협회(회장 김영진)와 제주도는 4일부터 6일까지 제주이주 희망자를 대상으로 제주이주 희망자 '제주살이' 체험 팸투어를 진행한다고 밝혔다.올해 2번째 진행되는 팸투어는 제주이주를 희망하는 도외지역민 30인을 초청해 제주의 문화와 생활방식, 부동산 정보, 제주도의 지원정책 및 창업정보 등 강의를 제공할 예정이다.팸투어에 참가한 이주민들은 40대부터 60대까지 연령으로 구성됐으며 참가자들 중 90%가 서울·경기에 집중돼 은퇴이후 제2의 삶과 여유로운 삶을 추구하고자 제주이주를 희망하고 있는 것으로 분석된다. 관계자는 "앞으로도 제주가 관광지를 넘어 '살고 싶은 제2의 고향'으로 그 가치를 더해 갈 수 있도록 제주로 이주를 고려하시는 분들에게 도움을 주고자 발판을 마련해 나갈 예정"이라고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도-인도네시아, 관광 활성화 위한 MOU 체결 &lt; 사회일반 &lt; 사회 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도-인도네시아, 관광 활성화 위한 MOU 체결 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회일반 제주도-인도네시아, 관광 활성화 위한 MOU 체결 기자명 조보영 기자 입력 2015.11.10 18:14 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 실질적 교류와 협력증진으로 공동 이익 창출 기여 전망 ▲지난 9일 인도네시아 관광부 14층 회의실에서 인도네시아의 마하마다 그룹과 한국의 이지웰페어가 관광활성화를 위한 업무협력을 체결했다.[제주도민일보=조보영 기자] 제주도와 제주도관광협회는 인도네시아의 마하다나 그룹과 한국의 이지웰페어가 관광활성화 증진을 위한 업무협력을 체결다고 10일 밝혔다.지난 9일 인도네시아 관광부 회의실에서 진행된 이번 협약은 제주도와 인도네시아간 관광객 유치와 상호 교류협력 분야 발굴 및 공동 이익 창출을 위한 물밑 행보의 일환이다.2003년 설립한 이지웰페어는 선택적 복지시스템이라는 새로운 정보시스템 분야를 개척한 바 있으며, 마하다나 그룹은 인도네시아 자카르타에 기반을 둔 투자그룹으로 금융 솔류션, 운송, 임대사업과 관련된 자회사를 두고 있다.제주관광공사 최갑열 사장은 “인도네시아 관광객 유치를 위해서는 할랄문화 인증 및 편의증진을 위한 수용태세 개선이 반드시 필요하다”며 “금번 업무협력을 통해 실질적 교류와 협력증진이 있을 것으로 기대된다”고 밝혔다.한편, 인도네시아 인구는 약 2억5천만 명이며 중산층 인구가 약 7천만명 규모로, 말레이시아와 같은 언어를 사용하는 등 유사한 문화를 갖고 있다.향후 제주도는 인도네시아와 말레이시아가 새로운 관광시장으로 부상할 것으로 내다보고 있다. 조보영 기자 maana97@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제민일보사·제주도관광협회 2015 제주관광대상 시상 &lt; 경제종합 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제민일보사·제주도관광협회 2015 제주관광대상 시상 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 경제종합 제민일보사·제주도관광협회 2015 제주관광대상 시상 기자명 한 권 기자 입력 2015.11.04 19:19 수정 2015.11.04 21:01 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 4일 제주상의 국제회의장서 열려…해비치호텔앤드리조트㈜ 대상 ▲ 제민일보사와 제주도관광협회가 공동주최로 제주관광 발전에 선도적인 역할을 하게 될 업체와 인재를 발굴해 시상하는 '2015제주관광대상' 시상식이 4일 오후 제주상공회의소 5층 국제회의장에서 열린 가운데 15명의 수상자와 내외 귀빈들이 기념촬영을 하고 있다. 김대생 기자제주관광의 괄목할 성장을 견인하는 관광업체와 인재를 발굴해 시상하는 '2015 제주관광대상' 시상식이 4일 제주상공회의소 국제회의장에서 열렸다.제민일보사(대표이사 백승훈)와 제주도관광협회(회장 김영진)가 공동주최한 '2015 제주관광대상'은 3년 연속 국내·외 관광객 1000만명 돌파라는 신기원과 내국인 관광객 1000만명 달성에 대한 기대감, 관광산업의 역할 확대 등 관광 성장세를 상징하는 자리로 주목받았다.올해 종합부문 대상에는 해비치호텔앤드리조트㈜(대표이사 이 민)가 선정돼 문화체육관광부장관 표창을 받았다.관광지업 부문 대상에는 김영갑갤러리두모악(관장 박훈일), 숙박업 부문 대상에는 ㈜다인리조트(대표이사 권혁성)가 각각 선정, 제주도지사 표창을 수상했다.마이스산업 부문 ㈜이다(대표이사 김명수)와 운수업 부문 ㈜동양썬라이즈관광(대표이사 고수은), 여행업 부문 (유)늘푸른항공여행사(대표이사 고금환)·㈜제주아름(대표이사 오정민)도 대상 업체로 제주도지사 표창을 받았다.관광자원화기여상은 이음새(대표이사 박지혜·제민일보 대표이사 표창)와 낙천리아홉굿마을(이장 오원국·한국관광협회중앙회장 표창)이 각각 수상했다.개인 부문에서는 양미영씨(48·여)와 이기홍씨(52)가 각각 여행안내사상(제주도지사 표창), 현수진(34·여)·문정원(49·여)씨가 공로상(제주도지사 표창)을 받았다. 이밖에 김선리(51·여)·박영석(51)씨가 특별상(제주도관광협회장 표창)을 받았다.이 민 해비치호텔앤드리조트㈜ 대표이사를 대신해 종합대상을 수상한 권순범 부총지배인은 "임·직원 모두 지금보다 더욱 노력해 제주관광 발전에 이바지하는 해비치가 되겠다"며 "지역과 동반성장할 수 있도록 지속적인 사회공헌활동도 이어나가겠다"고 밝혔다.한편 이날 시상식에는 권영수 제주도 행정부지사를 비롯해 장 씬 주제주중국총영사관 총영사, 부광진 서귀포시 부시장, 최갑열 제주관광공사 사장, 홍명표 한국관광협회중앙회 상임고문, 정상돈 한국은행제주본부장, 강덕재 농협중앙회 제주지역본부장, 강두철 제주은행 부행장 등이 참석했다.한 권 기자 한 권 기자 hk0828@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>맛과 영양 가득 제주도 중문관광단지 맛집 ‘오빠닭’ - 시선뉴스 × 전체기사 시사 전체 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 타임즈(개편중) 지식‧교양 전체 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 TV스캔들(개편중) 지식·정보 전체 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 전체 사회·문화 엔터테인먼트 날씨 다큐멘터리 전체 시선 인터뷰 역사 기억 [memory, 記憶] 스토리오브코리아 뉴스 전체 이슈돋보기 대중문화 HOT키워드 상상마당 라이프 전체 건강·음식 인테리어 패션·뷰티 육아 자동차 여행·관광 360VR e-biz 애니멀 전체 신비한 동물사전 반려동물농장 애니멀TV 산업 전체 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 아임반 x 네이버 쇼핑 페스타 행사 진행 메이튼, 쌍용 토레스 실내 편의 용품 콘솔 트레이 990원 이벤트 진행 (사)동물보호단체 헬프애니멀, 제3회 길고양이 중성화사업 TNR시 치료지원 사업 진행 PGA TOUR &amp; LPGA 골프웨어, 2022 F/W 런칭 행사 ‘PRIVATE SOCIAL PARTY’ 마무리 이포넷, 번역 서비스 분야 국제 표준 ISO 재인증 심사 통과 코바(KOVA), 범죄 없는 따뜻한 세상 위한 ‘2022 KOVA 범국민 캠페인’ 개최 [카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? 2022년 10월 둘째 주 육아 관련 정책 [육아 정책브리핑] 다시 공격받은 우크라 키이우, 출근길 도심 곳곳 불바다에 유혈 낭자 [글로벌이야기] 비타공방, 아토 비타민D 드롭 4,000IU 국내출시 음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 킥고잉, 자전거 출시 효과 톡톡... 신규 가입자 30% 증가 서울 잠원동서 50대 남성 권총에 맞아 병원 이송... 극단적 선택 추정 外 [오늘의 주요뉴스] 구전녹용, 녹용과 석류가 달여진 ‘구전녹용 정경부인’ 11일 재출시 쌍용C&amp;B, ‘코디 아트앤 포켓몬’ 휴대용 물티슈 출시 네이버TV 카카오TV 유튜브 네이버 포스트 facebook twitter kakao story 로그인 회원가입 모바일웹 시사 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 지식‧교양 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 지식·정보 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 사회·문화 엔터테인먼트 날씨 애니멀 신비한 동물사전 반려동물농장 애니멀TV 다큐멘터리 시선 인터뷰 키워드 한국사 기억 [memory, 記憶] 스토리오브코리아 뉴스 이슈돋보기 대중문화 산업 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 기사검색 검색 이전 다음 맛과 영양 가득 제주도 중문관광단지 맛집 ‘오빠닭’ 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 이슈돋보기 맛과 영양 가득 제주도 중문관광단지 맛집 ‘오빠닭’ 보도본부 | 이호 기자 승인 2015.11.27 14:17 댓글 0 글씨키우기 글씨줄이기 메일보내기 인쇄하기 페이스북 트위터 구글 카카오스토리 블로그 기사공유하기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [시선뉴스] 과거부터 현재까지 국내 관광지 중 가장 사랑 받는 곳은 바로 제주도일 것이다. 온난한 기후 때문에 겨울철에도 인기가 많은 제주도는 다양한 절경과 관광 상품 등으로 매년 관광객들이 끊이질 않는데 여러 제주도 관광지 중 가장 핫플레이스 꼽히는 곳은 바로 중문관광단지이다.중문관광단지에는 중문 해수욕장과 주상절리, 올레길, 퍼시픽랜드, 천제연폭포, 신라호텔, 롯데호텔, 위호텔, 부영호텔 등 다양한 관광지와 숙박시설이 있어 재미와 편의성을 모두 갖추고 있다는 평을 받고 있다. 또한 여행에 있어서 관광객들이 중요하게 생각하는 것 중 하나가 바로 먹거리인데 중문에는 다양한 중문맛집들이 즐비해 관광객들을 즐겁게 하고 있으며 그 중 중문관광단지 ‘오븐에 빠진 닭’ 역시 큰 사랑을 받고 있다.오빠닭은 전국적으로 많아 상당히 대중적인 곳으로 알려져 있지만 중문에 위치한 제주지사 직영점 오빠닭은 다른 매장과 다른 차별성을 내세우며 특별한 맛집으로 자리매김 하고 있다.일단 중문맛집 오빠닭의 장점은 바로 인테리어다. 오빠닭은 치킨집이지만 세련된 인테리어를 통해 고객들의 눈을 즐겁게 하고 있으며 폴딩도어 밖으로 보이는 경치는 식사시간을 더욱 만족스럽게 만들어주고 있다는 후기가 많다.인테리어뿐만 아니라 중문관광단지 맛집 오빠닭에서 제공하는 메뉴도 다양해 호평을 받고 있다. 크리스피 베이크와 오리지널 로스트, 퐁닭퐁닭, 요거닭, 파파닭, 스노우치즈불닭 등 치킨 메뉴의 선택에도 폭이 넓으며 떠먹는 피자치즈, 허니 갈릭, 골뱅이무침, 화로닭발, 먹태구이 등 치킨 메뉴 이외의 것도 비중 있는 메뉴로 자리잡고 있다.중문맛집 오빠닭의 한 관계자는 “관광객들이 더욱 즐거운 여행을 할 수 있도록 모든 메뉴에 정성을 기울이고 있다. 맛은 물론 영양까지 신경 쓴 음식들을 저렴하게 제공하고 있으며 제주도에서 좋은 기억을 가지고 갈 수 있도록 노력하고 있다.”고 밝혔다.또한 “오빠닭의 장점은 기름에 튀기지 않고 오븐에 구워서 치킨을 제공한다는 점이 있는데 최근 트랜스지방에 대한 경각심이 높은 만큼 이에 대한 고객들의 호응이 좋다. 영양가도 높이는 동시에 지방과 콜레스테롤을 최소화시키기 때문에 남녀노소 모두 즐길 수 있다.”고 설명했다.한편 중문관광단지 맛집 오빠닭은 현재 1만원 할인 이벤트도 진행 중이다. 오후 5시에서 7시 사이에 퐁닭퐁닭, 요거닭, 파파닭, 베리굿닭을 주문할 경우 5,000원을 할인 받을 수 있고, 또한 밤 11시부터 새벽 2시 사이에 페스츄리포테이토, 피쉬앤칩스, 모듬소세지, 먹태구이를 주문하면 5,000원 할인이 가능하다. 그리고 ‘에딩 앱’ 설치 후 5,000원 할인 쿠폰도 다운로드 받을 수 있다.오빠닭(www.oppadak.co.kr) 제주 본점 중문점은 제주특별자치도 서귀포시 중문동 1882에 위치하고 있으며 오후 4시부터 다음날 오전 2시까지가 영업시간이다. 저작권자 © 시선뉴스 무단전재 및 재배포 금지 보도자료 발송 및 기사제휴 ▶ sisunnews@sisunnews.co.kr 문의 ▶ 02-838-5150 연예·스포츠 인기뉴스 음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 혼밥 어플 ‘홀로’ 대표 서은호(학생서씨), 디지털 싱글 앨범 4집 ‘쏘 스윗 유어 나이트’ 발매 예고 혼밥 어플 ‘홀로’ 대표 서은호(학생서씨), 디지털 싱글 앨범 4집 ‘쏘 스윗 유어 나이트’ 발매 예고 싱어송라이터 제이플라(J.Fla), ‘Bedroom Singer’ 발매 싱어송라이터 제이플라(J.Fla), ‘Bedroom Singer’ 발매 비-조정석, 여성 골퍼와 난데없는 불륜설에 대해 분노... “허위 사실 법적대응할 것” 비-조정석, 여성 골퍼와 난데없는 불륜설에 대해 분노... “허위 사실 법적대응할 것” [카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? [카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? 다시 공격받은 우크라 키이우, 출근길 도심 곳곳 불바다에 유혈 낭자 [글로벌이야기] 서울 잠원동서 50대 남성 권총에 맞아 병원 이송... 극단적 선택 추정 外 [오늘의 주요뉴스] [카드뉴스] 10월부터 전기요금 인상, 물가 비상에도 요금을 왜 인상해야 할까? 시사상식 노트7 [2022년 10월 둘째 주_시선뉴스] 오늘의 주요뉴스 기사더보기 &gt; 이호 기자 dlghcap@sisunnews.co.kr “2019 소비자만족 브랜드대상 1위” 수학문제은행 ‘매쓰플랫’, 1... 인천 마음뜰심리상담센터 이은하 슈퍼바이저, “진실함과 전문성을 바탕으... 송파 글래드힐(Glad Heal), 정미경 대표  “몸과 마음의 균형... 오늘 이 영화 어때요? 1 [뮤지컬평점] 애절한 러브스토리, 원작의 재미와 감동이 무대로 옮겨간 '사랑의 불시착' [뮤지컬평점] 애절한 러브스토리, 원작의 재미와 감동이 무대로 옮겨간 '사랑의 불시착' 2 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 1 [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ 2 [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ 관련기사 죽음을 부른 잘못된 운전습관 ‘기어 D로 놓고 내리기’ [시선톡] [오늘의 사자성어] 적수공권[赤手空拳] [퇴근뉴스]러시아-터키 경고없었다, 송유근 박사 무산, 인분교수 징역, 에이미 패소[시선뉴스] 많이 본 뉴스 종합 뉴스 1[정책브리핑] 2022년 10월 10일 월요일 주요 정책 2[오늘의 사자성어] 피갈회옥[被褐懷玉] 3[10년 전 오늘] 검찰, 프로포폴 판매-투약자 무더기 체포...전면 수사에 나서 4車 주요뉴스, 휘발유 30.7원·경유 18.6원↓ - 무면허 렌터카 사고 - '타다' 대법서 최종 판단 [모터그램] 5이번 주 별자리운세 '10월 10일~10월 16일' [인포그래픽] 6[뮤지컬평점] 애절한 러브스토리, 원작의 재미와 감동이 무대로 옮겨간 '사랑의 불시착' 7앱 개발자들의 수익과 직결되는 ‘인앱 결제’, 애플 가격 인상 내걸어 [지식용어] 82022년 10월 10일, 오늘의 띠별 운세 [인포그래픽] 910월 10일 월요일, 오늘의 날씨와 미세먼지 농도 [인포그래픽] 10[시선★피플] 어느 하나 허투루 하지 않는, 유쾌한 웃음-저세상 텐션 '막가리' 김영철 1음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 2혼밥 어플 ‘홀로’ 대표 서은호(학생서씨), 디지털 싱글 앨범 4집 ‘쏘 스윗 유어 나이트’ 발매 예고 3싱어송라이터 제이플라(J.Fla), ‘Bedroom Singer’ 발매 4비-조정석, 여성 골퍼와 난데없는 불륜설에 대해 분노... “허위 사실 법적대응할 것” 5졸리 측, “피트가 아이들에게도 폭력 행사했다”... 기내 난투극 상황 상세히 공개 6MBN '우리들의 쇼10', 뉴트리 화장품 천수윤진 크림밤 소개 7박서준, 캘빈클라인 FW 캠페인 추가 공개 되며 다시 한번 ‘여심 저격’ 8‘비밀남녀’ 조이 무속인 정체 이후 실망스러운 전개 평가 나와 9가수 강태관이 신곡 ‘별’ 미디어파사드 뮤직비디오 선보여 10마약 투약 혐의 돈스파이크 구속 상태로 검찰에 넘겨져 스타 인터뷰 [시선★피플] 어느 하나 허투루 하지 않는, 유쾌한 웃음-저세상 텐션 '막가리' 김영철 [시선★피플] 어느 하나 허투루 하지 않는, 유쾌한 웃음-저세상 텐션 '막가리' 김영철 [어바웃 슈퍼리치] 헝지그룹 회장, 홍콩의 워런 버핏 '리자오지' 은퇴로 4대 부호 막 내려 [어바웃 슈퍼리치] 헝지그룹 회장, 홍콩의 워런 버핏 '리자오지' 은퇴로 4대 부호 막 내려 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' 신문방송사소개 인사말 연혁 등록인증 윤리강령 저작권규약 광고·제휴 제공제휴사 개인정보취급방침 이메일무단수집거부 찾아오시는길 청소년보호정책 서울특별시 구로구 디지털로31길 20 (구로동) 에이스테크노타워 5차 1008호 편집인 : 박진아 발행인 : 김정우 청소년보호책임자 : 박진아 등록일 : 2012.08.01 인터넷신문 등록번호 : 서울 아03964 이메일 : sisunnews@sisunnews.co.kr 사업자번호 : 130-86-88882 대표전화 : 02-838-5150 팩스 : 02-851-2908 Copyright © 2022 시선뉴스. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 위로</t>
+  </si>
+  <si>
+    <t>제주도 환상 자전거길 개통...234km의 아름다운 자전거 관광 만끽 - 시선뉴스 × 전체기사 시사 전체 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 타임즈(개편중) 지식‧교양 전체 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 TV스캔들(개편중) 지식·정보 전체 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 전체 사회·문화 엔터테인먼트 날씨 다큐멘터리 전체 시선 인터뷰 역사 기억 [memory, 記憶] 스토리오브코리아 뉴스 전체 이슈돋보기 대중문화 HOT키워드 상상마당 라이프 전체 건강·음식 인테리어 패션·뷰티 육아 자동차 여행·관광 360VR e-biz 애니멀 전체 신비한 동물사전 반려동물농장 애니멀TV 산업 전체 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 아임반 x 네이버 쇼핑 페스타 행사 진행 메이튼, 쌍용 토레스 실내 편의 용품 콘솔 트레이 990원 이벤트 진행 (사)동물보호단체 헬프애니멀, 제3회 길고양이 중성화사업 TNR시 치료지원 사업 진행 PGA TOUR &amp; LPGA 골프웨어, 2022 F/W 런칭 행사 ‘PRIVATE SOCIAL PARTY’ 마무리 이포넷, 번역 서비스 분야 국제 표준 ISO 재인증 심사 통과 코바(KOVA), 범죄 없는 따뜻한 세상 위한 ‘2022 KOVA 범국민 캠페인’ 개최 [카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? 2022년 10월 둘째 주 육아 관련 정책 [육아 정책브리핑] 다시 공격받은 우크라 키이우, 출근길 도심 곳곳 불바다에 유혈 낭자 [글로벌이야기] 비타공방, 아토 비타민D 드롭 4,000IU 국내출시 음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 킥고잉, 자전거 출시 효과 톡톡... 신규 가입자 30% 증가 서울 잠원동서 50대 남성 권총에 맞아 병원 이송... 극단적 선택 추정 外 [오늘의 주요뉴스] 구전녹용, 녹용과 석류가 달여진 ‘구전녹용 정경부인’ 11일 재출시 쌍용C&amp;B, ‘코디 아트앤 포켓몬’ 휴대용 물티슈 출시 네이버TV 카카오TV 유튜브 네이버 포스트 facebook twitter kakao story 로그인 회원가입 모바일웹 시사 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 지식‧교양 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 지식·정보 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 사회·문화 엔터테인먼트 날씨 애니멀 신비한 동물사전 반려동물농장 애니멀TV 다큐멘터리 시선 인터뷰 키워드 한국사 기억 [memory, 記憶] 스토리오브코리아 뉴스 이슈돋보기 대중문화 산업 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 기사검색 검색 이전 다음 제주도 환상 자전거길 개통...234km의 아름다운 자전거 관광 만끽 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 이슈돋보기 제주도 환상 자전거길 개통...234km의 아름다운 자전거 관광 만끽 보도본부 | 온라인미디어팀 승인 2015.11.07 22:49 댓글 0 글씨키우기 글씨줄이기 메일보내기 인쇄하기 페이스북 트위터 구글 카카오스토리 블로그 기사공유하기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [시선뉴스] 환상 자전거길 등과 관련해 7일 행정자치부와 제주도, 제주도자전거단체협의회 등 동호회는 이날 서귀포시 성산읍 오조리 한도교 서쪽 주차장에서 ‘제주 환상 자전거길’의 개통식을 열었다. ▲ 제주도 환상 자전거길 개통으로 새로운 관광명소로 급부상하고 있다.(출처/픽사베이) 이번에 개통된 자전거길은 총 234km로 2010년부터 올해까지 해안도로와 일주도로를 따라 새로 정비한 183.3㎞와 기존에 이용하던 자전거길 50.7㎞을 연결해 교통량이 적은 해안도로를 활용해 제주도 한바퀴를 일주할 수 있는 형태로 조성, 6년 동안 총 357억6천만원(국비와 지방비 각 50％)이 투입됐다고 전해졌다.쇠소깎, 성산일출봉, 송악산 등 관광명소를 경유하고 있어 볼거리가 가득하며, 특히 남원에서 김녕 해변으로 이어지는 60km 해안도로 구간은 탁 트인 바다를 보며 제주도만의 풍경을 만끽할 수 있다.환상 자전거길 개통에 대해 “제주를 세계로 알리고 성장하는 인프라로 자전거길이 활용됐으면 한다”고 밝혔다. 원희룡 제주지사는 환상 자전거길 개통을 두고 “제주도와 도민들이 환상 자전거길이 발전할 수 있도록 자발적으로 관리해 나가자”고 알렸다. 저작권자 © 시선뉴스 무단전재 및 재배포 금지 보도자료 발송 및 기사제휴 ▶ sisunnews@sisunnews.co.kr 문의 ▶ 02-838-5150 연예·스포츠 인기뉴스 음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 혼밥 어플 ‘홀로’ 대표 서은호(학생서씨), 디지털 싱글 앨범 4집 ‘쏘 스윗 유어 나이트’ 발매 예고 혼밥 어플 ‘홀로’ 대표 서은호(학생서씨), 디지털 싱글 앨범 4집 ‘쏘 스윗 유어 나이트’ 발매 예고 싱어송라이터 제이플라(J.Fla), ‘Bedroom Singer’ 발매 싱어송라이터 제이플라(J.Fla), ‘Bedroom Singer’ 발매 비-조정석, 여성 골퍼와 난데없는 불륜설에 대해 분노... “허위 사실 법적대응할 것” 비-조정석, 여성 골퍼와 난데없는 불륜설에 대해 분노... “허위 사실 법적대응할 것” [카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? [카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? 다시 공격받은 우크라 키이우, 출근길 도심 곳곳 불바다에 유혈 낭자 [글로벌이야기] 서울 잠원동서 50대 남성 권총에 맞아 병원 이송... 극단적 선택 추정 外 [오늘의 주요뉴스] [카드뉴스] 10월부터 전기요금 인상, 물가 비상에도 요금을 왜 인상해야 할까? 시사상식 노트7 [2022년 10월 둘째 주_시선뉴스] 오늘의 주요뉴스 기사더보기 &gt; 온라인미디어팀 media@sisunnews.co.kr [정정보도문] 영화감독 김기덕 미투 사건 관련 보도를 바로 잡습니다 방탄소년단 ‘피땀눈물’, 1억뷰 돌파…유튜브 공개 후 4개월 바른정당 유승민 의원, IBK기업은행 PC오프제 체험...“칼퇴근 정... 오늘 이 영화 어때요? 1 [뮤지컬평점] 애절한 러브스토리, 원작의 재미와 감동이 무대로 옮겨간 '사랑의 불시착' [뮤지컬평점] 애절한 러브스토리, 원작의 재미와 감동이 무대로 옮겨간 '사랑의 불시착' 2 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 1 [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ 2 [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ 관련기사 [세컷뉴스]스마트폰이 보급되면서 사라진 것들 [시선뉴스] 자동차의 작은 상처를 치료해 주는 컴파운드 사용법 [자동차의 모든 것] “더 이상 아저씨라 부르지마” 오빠라 불리고픈 ‘노무족’ [지식용어] 많이 본 뉴스 종합 뉴스 1[정책브리핑] 2022년 10월 10일 월요일 주요 정책 2[오늘의 사자성어] 피갈회옥[被褐懷玉] 3[10년 전 오늘] 검찰, 프로포폴 판매-투약자 무더기 체포...전면 수사에 나서 4車 주요뉴스, 휘발유 30.7원·경유 18.6원↓ - 무면허 렌터카 사고 - '타다' 대법서 최종 판단 [모터그램] 5이번 주 별자리운세 '10월 10일~10월 16일' [인포그래픽] 6[뮤지컬평점] 애절한 러브스토리, 원작의 재미와 감동이 무대로 옮겨간 '사랑의 불시착' 7앱 개발자들의 수익과 직결되는 ‘인앱 결제’, 애플 가격 인상 내걸어 [지식용어] 82022년 10월 10일, 오늘의 띠별 운세 [인포그래픽] 910월 10일 월요일, 오늘의 날씨와 미세먼지 농도 [인포그래픽] 10[시선★피플] 어느 하나 허투루 하지 않는, 유쾌한 웃음-저세상 텐션 '막가리' 김영철 1음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 2혼밥 어플 ‘홀로’ 대표 서은호(학생서씨), 디지털 싱글 앨범 4집 ‘쏘 스윗 유어 나이트’ 발매 예고 3싱어송라이터 제이플라(J.Fla), ‘Bedroom Singer’ 발매 4비-조정석, 여성 골퍼와 난데없는 불륜설에 대해 분노... “허위 사실 법적대응할 것” 5졸리 측, “피트가 아이들에게도 폭력 행사했다”... 기내 난투극 상황 상세히 공개 6MBN '우리들의 쇼10', 뉴트리 화장품 천수윤진 크림밤 소개 7박서준, 캘빈클라인 FW 캠페인 추가 공개 되며 다시 한번 ‘여심 저격’ 8‘비밀남녀’ 조이 무속인 정체 이후 실망스러운 전개 평가 나와 9가수 강태관이 신곡 ‘별’ 미디어파사드 뮤직비디오 선보여 10마약 투약 혐의 돈스파이크 구속 상태로 검찰에 넘겨져 스타 인터뷰 [시선★피플] 어느 하나 허투루 하지 않는, 유쾌한 웃음-저세상 텐션 '막가리' 김영철 [시선★피플] 어느 하나 허투루 하지 않는, 유쾌한 웃음-저세상 텐션 '막가리' 김영철 [어바웃 슈퍼리치] 헝지그룹 회장, 홍콩의 워런 버핏 '리자오지' 은퇴로 4대 부호 막 내려 [어바웃 슈퍼리치] 헝지그룹 회장, 홍콩의 워런 버핏 '리자오지' 은퇴로 4대 부호 막 내려 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' 신문방송사소개 인사말 연혁 등록인증 윤리강령 저작권규약 광고·제휴 제공제휴사 개인정보취급방침 이메일무단수집거부 찾아오시는길 청소년보호정책 서울특별시 구로구 디지털로31길 20 (구로동) 에이스테크노타워 5차 1008호 편집인 : 박진아 발행인 : 김정우 청소년보호책임자 : 박진아 등록일 : 2012.08.01 인터넷신문 등록번호 : 서울 아03964 이메일 : sisunnews@sisunnews.co.kr 사업자번호 : 130-86-88882 대표전화 : 02-838-5150 팩스 : 02-851-2908 Copyright © 2022 시선뉴스. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 위로</t>
   </si>
 </sst>
 </file>
@@ -431,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -464,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -474,6 +597,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
@@ -482,9 +608,6 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
@@ -494,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -505,7 +628,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -515,6 +638,9 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
@@ -523,9 +649,6 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
@@ -535,7 +658,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -546,7 +669,307 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
